--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usps365-my.sharepoint.com/personal/harris_n_jalil_usps_gov/Documents/Documents/GitHub/api-examples/Error Inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D581EF-32DA-4A16-842B-7FDC07F9E3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD22E3-FFB2-4FFE-8026-20B5255FF734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="10896" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="5" activeTab="5" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="695">
   <si>
     <t>API</t>
   </si>
@@ -2125,9 +2125,6 @@
     <t>either rateIndicator or shape and packagingType are required</t>
   </si>
   <si>
-    <t>require first name and last name or a firm</t>
-  </si>
-  <si>
     <t>160283</t>
   </si>
   <si>
@@ -2138,6 +2135,18 @@
   </si>
   <si>
     <t>cannot include packagingType with rateIndicator</t>
+  </si>
+  <si>
+    <t>PAYER requires accountNumber when accountType is METER</t>
+  </si>
+  <si>
+    <t>Meter pricing is only available to PC Postage Providers</t>
+  </si>
+  <si>
+    <t>vendor code can not be null for accountType is METER</t>
+  </si>
+  <si>
+    <t>Zip code combination does not qualify for the selected mail class</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2351,6 +2360,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2669,17 +2681,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE94A6F-04F8-4E7E-BB56-C81A55255447}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2719,7 +2733,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2745,7 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -2743,7 +2757,7 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2769,7 @@
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2781,7 @@
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2793,7 @@
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2805,7 @@
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
@@ -2817,19 +2831,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>541</v>
       </c>
@@ -2869,7 +2885,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>541</v>
       </c>
@@ -2889,7 +2905,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>541</v>
       </c>
@@ -2909,7 +2925,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>541</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>541</v>
       </c>
@@ -2949,7 +2965,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>541</v>
       </c>
@@ -2969,7 +2985,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>541</v>
       </c>
@@ -2989,7 +3005,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>541</v>
       </c>
@@ -3009,7 +3025,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>541</v>
       </c>
@@ -3039,20 +3055,22 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>562</v>
       </c>
@@ -3092,7 +3110,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>562</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>562</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>562</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>562</v>
       </c>
@@ -3172,7 +3190,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>562</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>562</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>562</v>
       </c>
@@ -3232,7 +3250,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>562</v>
       </c>
@@ -3252,7 +3270,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>562</v>
       </c>
@@ -3272,7 +3290,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>562</v>
       </c>
@@ -3292,7 +3310,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>562</v>
       </c>
@@ -3312,7 +3330,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>562</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>562</v>
       </c>
@@ -3350,6 +3368,46 @@
       </c>
       <c r="F15" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E16" s="24">
+        <v>160289</v>
+      </c>
+      <c r="F16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E17" s="24">
+        <v>160290</v>
+      </c>
+      <c r="F17" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -3364,19 +3422,21 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="136.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="136.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -3416,7 +3476,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>593</v>
       </c>
@@ -3436,7 +3496,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -3456,7 +3516,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>593</v>
       </c>
@@ -3476,7 +3536,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>593</v>
       </c>
@@ -3496,7 +3556,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>593</v>
       </c>
@@ -3516,7 +3576,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>593</v>
       </c>
@@ -3536,7 +3596,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>593</v>
       </c>
@@ -3556,7 +3616,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>593</v>
       </c>
@@ -3576,7 +3636,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>593</v>
       </c>
@@ -3596,7 +3656,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>593</v>
       </c>
@@ -3616,7 +3676,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>593</v>
       </c>
@@ -3636,7 +3696,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>593</v>
       </c>
@@ -3656,7 +3716,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>593</v>
       </c>
@@ -3676,7 +3736,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>593</v>
       </c>
@@ -3706,23 +3766,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3802,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>626</v>
       </c>
@@ -3762,7 +3822,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>626</v>
       </c>
@@ -3780,6 +3840,26 @@
       </c>
       <c r="F3" s="32" t="s">
         <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B4" s="24">
+        <v>400</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" s="26">
+        <v>160288</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -3794,19 +3874,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>632</v>
       </c>
@@ -3846,7 +3928,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>632</v>
       </c>
@@ -3866,7 +3948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>632</v>
       </c>
@@ -3886,7 +3968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>632</v>
       </c>
@@ -3906,7 +3988,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>632</v>
       </c>
@@ -3926,7 +4008,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>632</v>
       </c>
@@ -3946,7 +4028,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>632</v>
       </c>
@@ -3966,7 +4048,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>632</v>
       </c>
@@ -3986,7 +4068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>632</v>
       </c>
@@ -4006,7 +4088,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>632</v>
       </c>
@@ -4026,7 +4108,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>632</v>
       </c>
@@ -4046,7 +4128,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>632</v>
       </c>
@@ -4066,7 +4148,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>632</v>
       </c>
@@ -4086,7 +4168,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>632</v>
       </c>
@@ -4106,7 +4188,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>632</v>
       </c>
@@ -4126,7 +4208,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>632</v>
       </c>
@@ -4146,7 +4228,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>632</v>
       </c>
@@ -4166,7 +4248,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>632</v>
       </c>
@@ -4186,7 +4268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>632</v>
       </c>
@@ -4206,7 +4288,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>632</v>
       </c>
@@ -4226,7 +4308,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>632</v>
       </c>
@@ -4246,7 +4328,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>632</v>
       </c>
@@ -4266,7 +4348,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>632</v>
       </c>
@@ -4286,7 +4368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>632</v>
       </c>
@@ -4306,7 +4388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>632</v>
       </c>
@@ -4326,7 +4408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>632</v>
       </c>
@@ -4346,7 +4428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>632</v>
       </c>
@@ -4366,7 +4448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>632</v>
       </c>
@@ -4386,7 +4468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>632</v>
       </c>
@@ -4406,7 +4488,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>632</v>
       </c>
@@ -4426,7 +4508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>632</v>
       </c>
@@ -4446,7 +4528,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>632</v>
       </c>
@@ -4466,7 +4548,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>632</v>
       </c>
@@ -4486,7 +4568,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>632</v>
       </c>
@@ -4506,7 +4588,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>632</v>
       </c>
@@ -4526,7 +4608,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>632</v>
       </c>
@@ -4546,7 +4628,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>632</v>
       </c>
@@ -4566,7 +4648,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>632</v>
       </c>
@@ -4600,20 +4682,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>654</v>
       </c>
@@ -4653,7 +4735,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>654</v>
       </c>
@@ -4673,7 +4755,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>654</v>
       </c>
@@ -4693,7 +4775,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>654</v>
       </c>
@@ -4713,7 +4795,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>654</v>
       </c>
@@ -4733,7 +4815,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>654</v>
       </c>
@@ -4753,7 +4835,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>654</v>
       </c>
@@ -4773,7 +4855,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>654</v>
       </c>
@@ -4793,7 +4875,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>654</v>
       </c>
@@ -4813,7 +4895,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>654</v>
       </c>
@@ -4833,7 +4915,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>654</v>
       </c>
@@ -4853,7 +4935,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>654</v>
       </c>
@@ -4873,7 +4955,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>654</v>
       </c>
@@ -4911,18 +4993,18 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +5024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4962,7 +5044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -4982,7 +5064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -5002,7 +5084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -5022,7 +5104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -5042,7 +5124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -5062,30 +5144,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5107,20 +5189,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5160,7 +5242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5180,7 +5262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5200,7 +5282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5220,7 +5302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5240,7 +5322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -5260,7 +5342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -5280,7 +5362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5300,7 +5382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5320,7 +5402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5340,7 +5422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -5360,7 +5442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5380,7 +5462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5400,7 +5482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5420,7 +5502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5440,7 +5522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5460,7 +5542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -5480,7 +5562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5500,7 +5582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5520,7 +5602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -5540,7 +5622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5575,19 +5657,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.33203125" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
@@ -5627,7 +5711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>70</v>
       </c>
@@ -5647,7 +5731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>70</v>
       </c>
@@ -5667,7 +5751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
@@ -5687,7 +5771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -5707,7 +5791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>70</v>
       </c>
@@ -5727,7 +5811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -5747,7 +5831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
@@ -5767,7 +5851,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
@@ -5800,21 +5884,21 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="115.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5834,7 +5918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5854,7 +5938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -5874,7 +5958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>91</v>
       </c>
@@ -5894,7 +5978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>91</v>
       </c>
@@ -5914,7 +5998,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>91</v>
       </c>
@@ -5934,7 +6018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>91</v>
       </c>
@@ -5954,7 +6038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>91</v>
       </c>
@@ -5974,7 +6058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>91</v>
       </c>
@@ -5994,7 +6078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -6014,7 +6098,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
@@ -6054,7 +6138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
@@ -6074,7 +6158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
@@ -6094,7 +6178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>91</v>
       </c>
@@ -6114,7 +6198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>91</v>
       </c>
@@ -6134,7 +6218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>91</v>
       </c>
@@ -6154,7 +6238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
@@ -6174,7 +6258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>91</v>
       </c>
@@ -6194,7 +6278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>91</v>
       </c>
@@ -6214,7 +6298,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>91</v>
       </c>
@@ -6234,7 +6318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>91</v>
       </c>
@@ -6254,7 +6338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>91</v>
       </c>
@@ -6274,7 +6358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>91</v>
       </c>
@@ -6294,7 +6378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -6314,7 +6398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>91</v>
       </c>
@@ -6334,7 +6418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>91</v>
       </c>
@@ -6354,7 +6438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>91</v>
       </c>
@@ -6374,7 +6458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>91</v>
       </c>
@@ -6394,7 +6478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
@@ -6414,7 +6498,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>91</v>
       </c>
@@ -6434,7 +6518,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>91</v>
       </c>
@@ -6454,7 +6538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>91</v>
       </c>
@@ -6474,7 +6558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>91</v>
       </c>
@@ -6494,7 +6578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>91</v>
       </c>
@@ -6514,7 +6598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>91</v>
       </c>
@@ -6534,7 +6618,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>91</v>
       </c>
@@ -6554,7 +6638,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>91</v>
       </c>
@@ -6574,7 +6658,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>91</v>
       </c>
@@ -6594,7 +6678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>91</v>
       </c>
@@ -6614,7 +6698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>91</v>
       </c>
@@ -6634,7 +6718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>91</v>
       </c>
@@ -6654,7 +6738,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>91</v>
       </c>
@@ -6674,7 +6758,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>91</v>
       </c>
@@ -6694,7 +6778,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>91</v>
       </c>
@@ -6714,7 +6798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>91</v>
       </c>
@@ -6734,7 +6818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -6754,7 +6838,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>91</v>
       </c>
@@ -6774,7 +6858,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>91</v>
       </c>
@@ -6794,7 +6878,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>91</v>
       </c>
@@ -6814,7 +6898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>91</v>
       </c>
@@ -6834,7 +6918,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>91</v>
       </c>
@@ -6854,7 +6938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>91</v>
       </c>
@@ -6874,7 +6958,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>91</v>
       </c>
@@ -6894,7 +6978,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -6914,7 +6998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>91</v>
       </c>
@@ -6934,7 +7018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>91</v>
       </c>
@@ -6954,7 +7038,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>91</v>
       </c>
@@ -6974,7 +7058,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>91</v>
       </c>
@@ -6994,7 +7078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>91</v>
       </c>
@@ -7014,7 +7098,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>91</v>
       </c>
@@ -7034,7 +7118,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>91</v>
       </c>
@@ -7054,7 +7138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>91</v>
       </c>
@@ -7074,7 +7158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>91</v>
       </c>
@@ -7094,7 +7178,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>91</v>
       </c>
@@ -7114,7 +7198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>91</v>
       </c>
@@ -7134,7 +7218,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>91</v>
       </c>
@@ -7154,7 +7238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>91</v>
       </c>
@@ -7174,7 +7258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>91</v>
       </c>
@@ -7194,7 +7278,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>91</v>
       </c>
@@ -7214,7 +7298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>91</v>
       </c>
@@ -7234,7 +7318,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>91</v>
       </c>
@@ -7254,7 +7338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>91</v>
       </c>
@@ -7274,7 +7358,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>91</v>
       </c>
@@ -7294,7 +7378,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>91</v>
       </c>
@@ -7314,7 +7398,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>91</v>
       </c>
@@ -7334,7 +7418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>91</v>
       </c>
@@ -7354,7 +7438,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>91</v>
       </c>
@@ -7374,7 +7458,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>91</v>
       </c>
@@ -7394,7 +7478,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>91</v>
       </c>
@@ -7414,7 +7498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>91</v>
       </c>
@@ -7434,7 +7518,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>91</v>
       </c>
@@ -7454,7 +7538,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>91</v>
       </c>
@@ -7474,7 +7558,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>91</v>
       </c>
@@ -7494,7 +7578,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>91</v>
       </c>
@@ -7514,7 +7598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>91</v>
       </c>
@@ -7534,7 +7618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>91</v>
       </c>
@@ -7554,7 +7638,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>91</v>
       </c>
@@ -7574,7 +7658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>91</v>
       </c>
@@ -7594,7 +7678,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>91</v>
       </c>
@@ -7614,7 +7698,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>91</v>
       </c>
@@ -7634,7 +7718,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>91</v>
       </c>
@@ -7654,7 +7738,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>91</v>
       </c>
@@ -7674,7 +7758,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>91</v>
       </c>
@@ -7694,7 +7778,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>91</v>
       </c>
@@ -7714,7 +7798,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>91</v>
       </c>
@@ -7734,7 +7818,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>91</v>
       </c>
@@ -7754,7 +7838,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>91</v>
       </c>
@@ -7774,7 +7858,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>91</v>
       </c>
@@ -7794,7 +7878,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>91</v>
       </c>
@@ -7814,7 +7898,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>91</v>
       </c>
@@ -7834,7 +7918,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>91</v>
       </c>
@@ -7854,7 +7938,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>91</v>
       </c>
@@ -7874,7 +7958,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
         <v>91</v>
       </c>
@@ -7894,7 +7978,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>91</v>
       </c>
@@ -7914,7 +7998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
         <v>91</v>
       </c>
@@ -7934,7 +8018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
         <v>91</v>
       </c>
@@ -7954,7 +8038,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
         <v>91</v>
       </c>
@@ -7974,7 +8058,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
         <v>91</v>
       </c>
@@ -7994,7 +8078,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
         <v>91</v>
       </c>
@@ -8014,7 +8098,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
         <v>91</v>
       </c>
@@ -8034,7 +8118,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
         <v>91</v>
       </c>
@@ -8054,7 +8138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
         <v>91</v>
       </c>
@@ -8074,7 +8158,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
         <v>91</v>
       </c>
@@ -8094,7 +8178,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
         <v>91</v>
       </c>
@@ -8114,7 +8198,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
         <v>91</v>
       </c>
@@ -8134,7 +8218,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>91</v>
       </c>
@@ -8154,7 +8238,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
         <v>91</v>
       </c>
@@ -8174,7 +8258,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
         <v>91</v>
       </c>
@@ -8194,7 +8278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
         <v>91</v>
       </c>
@@ -8214,7 +8298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
         <v>91</v>
       </c>
@@ -8234,7 +8318,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>91</v>
       </c>
@@ -8254,7 +8338,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
         <v>91</v>
       </c>
@@ -8274,7 +8358,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
         <v>91</v>
       </c>
@@ -8294,7 +8378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
         <v>91</v>
       </c>
@@ -8314,7 +8398,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>91</v>
       </c>
@@ -8334,7 +8418,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
         <v>91</v>
       </c>
@@ -8354,7 +8438,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>91</v>
       </c>
@@ -8374,7 +8458,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
         <v>91</v>
       </c>
@@ -8394,7 +8478,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
         <v>91</v>
       </c>
@@ -8414,7 +8498,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>91</v>
       </c>
@@ -8434,7 +8518,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
         <v>91</v>
       </c>
@@ -8454,7 +8538,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
         <v>91</v>
       </c>
@@ -8474,7 +8558,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
         <v>91</v>
       </c>
@@ -8494,7 +8578,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>91</v>
       </c>
@@ -8514,7 +8598,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>91</v>
       </c>
@@ -8534,7 +8618,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
         <v>91</v>
       </c>
@@ -8554,7 +8638,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
         <v>91</v>
       </c>
@@ -8574,7 +8658,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
         <v>91</v>
       </c>
@@ -8594,7 +8678,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
         <v>91</v>
       </c>
@@ -8614,7 +8698,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
         <v>91</v>
       </c>
@@ -8634,7 +8718,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>91</v>
       </c>
@@ -8654,7 +8738,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>91</v>
       </c>
@@ -8674,7 +8758,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>91</v>
       </c>
@@ -8694,7 +8778,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>91</v>
       </c>
@@ -8714,7 +8798,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>91</v>
       </c>
@@ -8734,7 +8818,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>91</v>
       </c>
@@ -8754,7 +8838,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
         <v>91</v>
       </c>
@@ -8774,7 +8858,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>91</v>
       </c>
@@ -8794,7 +8878,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
         <v>91</v>
       </c>
@@ -8814,7 +8898,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
         <v>91</v>
       </c>
@@ -8834,7 +8918,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
         <v>91</v>
       </c>
@@ -8854,7 +8938,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
         <v>91</v>
       </c>
@@ -8874,7 +8958,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
         <v>91</v>
       </c>
@@ -8894,7 +8978,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20" t="s">
         <v>91</v>
       </c>
@@ -8914,7 +8998,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="20" t="s">
         <v>91</v>
       </c>
@@ -8934,7 +9018,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
         <v>91</v>
       </c>
@@ -8954,7 +9038,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
         <v>91</v>
       </c>
@@ -8974,7 +9058,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
         <v>91</v>
       </c>
@@ -8994,7 +9078,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
         <v>91</v>
       </c>
@@ -9007,38 +9091,54 @@
       <c r="D160" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E160" s="17">
+      <c r="E160" s="26">
+        <v>160286</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161" s="20">
+        <v>400</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161" s="26">
+        <v>160287</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B162" s="20">
+        <v>400</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E162" s="17">
         <v>160288</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="24"/>
-      <c r="C161" s="10"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="35"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="24"/>
-      <c r="C162" s="10"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="35"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="24"/>
-      <c r="C163" s="10"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="35"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="24"/>
-      <c r="C164" s="10"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="35"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="24"/>
       <c r="C165" s="10"/>
       <c r="E165" s="24"/>
@@ -9056,21 +9156,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9090,7 +9192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>375</v>
       </c>
@@ -9110,7 +9212,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>375</v>
       </c>
@@ -9130,7 +9232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>375</v>
       </c>
@@ -9150,7 +9252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>375</v>
       </c>
@@ -9170,7 +9272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>375</v>
       </c>
@@ -9190,7 +9292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>375</v>
       </c>
@@ -9210,7 +9312,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>375</v>
       </c>
@@ -9230,7 +9332,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>375</v>
       </c>
@@ -9250,7 +9352,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>375</v>
       </c>
@@ -9270,7 +9372,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>375</v>
       </c>
@@ -9290,7 +9392,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>375</v>
       </c>
@@ -9310,7 +9412,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>375</v>
       </c>
@@ -9330,7 +9432,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>375</v>
       </c>
@@ -9350,7 +9452,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>375</v>
       </c>
@@ -9370,7 +9472,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>375</v>
       </c>
@@ -9390,7 +9492,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>375</v>
       </c>
@@ -9410,7 +9512,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>375</v>
       </c>
@@ -9430,7 +9532,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>375</v>
       </c>
@@ -9450,7 +9552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>375</v>
       </c>
@@ -9470,7 +9572,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>375</v>
       </c>
@@ -9490,7 +9592,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>375</v>
       </c>
@@ -9510,7 +9612,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>375</v>
       </c>
@@ -9530,7 +9632,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>375</v>
       </c>
@@ -9550,7 +9652,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>375</v>
       </c>
@@ -9570,7 +9672,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>375</v>
       </c>
@@ -9590,7 +9692,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>375</v>
       </c>
@@ -9610,7 +9712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>375</v>
       </c>
@@ -9630,7 +9732,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>375</v>
       </c>
@@ -9650,7 +9752,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>375</v>
       </c>
@@ -9670,7 +9772,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>375</v>
       </c>
@@ -9690,7 +9792,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>375</v>
       </c>
@@ -9710,7 +9812,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>375</v>
       </c>
@@ -9730,7 +9832,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>375</v>
       </c>
@@ -9750,7 +9852,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>375</v>
       </c>
@@ -9770,7 +9872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>375</v>
       </c>
@@ -9790,7 +9892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>375</v>
       </c>
@@ -9810,7 +9912,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>375</v>
       </c>
@@ -9830,7 +9932,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>375</v>
       </c>
@@ -9850,7 +9952,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>375</v>
       </c>
@@ -9870,7 +9972,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>375</v>
       </c>
@@ -9890,7 +9992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>375</v>
       </c>
@@ -9910,7 +10012,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>375</v>
       </c>
@@ -9930,7 +10032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>375</v>
       </c>
@@ -9950,7 +10052,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>375</v>
       </c>
@@ -9970,7 +10072,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>375</v>
       </c>
@@ -9990,7 +10092,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>375</v>
       </c>
@@ -10010,7 +10112,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>375</v>
       </c>
@@ -10030,7 +10132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>375</v>
       </c>
@@ -10050,7 +10152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>375</v>
       </c>
@@ -10070,7 +10172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>375</v>
       </c>
@@ -10090,7 +10192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>375</v>
       </c>
@@ -10110,7 +10212,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>375</v>
       </c>
@@ -10130,7 +10232,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>375</v>
       </c>
@@ -10150,7 +10252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>375</v>
       </c>
@@ -10170,7 +10272,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>375</v>
       </c>
@@ -10190,7 +10292,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>375</v>
       </c>
@@ -10210,7 +10312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>375</v>
       </c>
@@ -10230,7 +10332,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>375</v>
       </c>
@@ -10250,7 +10352,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>375</v>
       </c>
@@ -10270,7 +10372,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>375</v>
       </c>
@@ -10290,7 +10392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>375</v>
       </c>
@@ -10310,7 +10412,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>375</v>
       </c>
@@ -10330,7 +10432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>375</v>
       </c>
@@ -10350,7 +10452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>375</v>
       </c>
@@ -10370,7 +10472,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>375</v>
       </c>
@@ -10390,7 +10492,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>375</v>
       </c>
@@ -10410,7 +10512,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>375</v>
       </c>
@@ -10430,7 +10532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>375</v>
       </c>
@@ -10450,7 +10552,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>375</v>
       </c>
@@ -10470,7 +10572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>375</v>
       </c>
@@ -10490,7 +10592,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>375</v>
       </c>
@@ -10510,7 +10612,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>375</v>
       </c>
@@ -10530,7 +10632,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>375</v>
       </c>
@@ -10550,7 +10652,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>375</v>
       </c>
@@ -10570,7 +10672,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>375</v>
       </c>
@@ -10590,7 +10692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>375</v>
       </c>
@@ -10610,7 +10712,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>375</v>
       </c>
@@ -10630,7 +10732,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>375</v>
       </c>
@@ -10650,7 +10752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>375</v>
       </c>
@@ -10670,7 +10772,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>375</v>
       </c>
@@ -10690,7 +10792,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>375</v>
       </c>
@@ -10710,7 +10812,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>375</v>
       </c>
@@ -10730,7 +10832,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>375</v>
       </c>
@@ -10750,7 +10852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>375</v>
       </c>
@@ -10770,7 +10872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>375</v>
       </c>
@@ -10790,7 +10892,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>375</v>
       </c>
@@ -10810,7 +10912,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>375</v>
       </c>
@@ -10830,7 +10932,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>375</v>
       </c>
@@ -10850,7 +10952,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>375</v>
       </c>
@@ -10870,7 +10972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>375</v>
       </c>
@@ -10890,7 +10992,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>375</v>
       </c>
@@ -10910,7 +11012,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>375</v>
       </c>
@@ -10930,7 +11032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>375</v>
       </c>
@@ -10950,7 +11052,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>375</v>
       </c>
@@ -10970,7 +11072,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>375</v>
       </c>
@@ -10990,7 +11092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>375</v>
       </c>
@@ -11010,7 +11112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>375</v>
       </c>
@@ -11030,7 +11132,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>375</v>
       </c>
@@ -11050,7 +11152,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>375</v>
       </c>
@@ -11070,7 +11172,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>375</v>
       </c>
@@ -11090,7 +11192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>375</v>
       </c>
@@ -11110,7 +11212,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>375</v>
       </c>
@@ -11130,7 +11232,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>375</v>
       </c>
@@ -11150,7 +11252,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>375</v>
       </c>
@@ -11170,7 +11272,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>375</v>
       </c>
@@ -11190,7 +11292,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>375</v>
       </c>
@@ -11210,7 +11312,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>375</v>
       </c>
@@ -11230,7 +11332,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>375</v>
       </c>
@@ -11250,7 +11352,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>375</v>
       </c>
@@ -11270,7 +11372,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>375</v>
       </c>
@@ -11290,7 +11392,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>375</v>
       </c>
@@ -11310,7 +11412,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>375</v>
       </c>
@@ -11330,7 +11432,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>375</v>
       </c>
@@ -11350,7 +11452,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>375</v>
       </c>
@@ -11370,7 +11472,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>375</v>
       </c>
@@ -11390,7 +11492,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>375</v>
       </c>
@@ -11410,7 +11512,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>375</v>
       </c>
@@ -11430,7 +11532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>375</v>
       </c>
@@ -11450,7 +11552,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>375</v>
       </c>
@@ -11470,7 +11572,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>375</v>
       </c>
@@ -11490,7 +11592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>375</v>
       </c>
@@ -11510,7 +11612,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>375</v>
       </c>
@@ -11530,7 +11632,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>375</v>
       </c>
@@ -11550,7 +11652,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>375</v>
       </c>
@@ -11570,7 +11672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>375</v>
       </c>
@@ -11590,7 +11692,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -11610,7 +11712,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>375</v>
       </c>
@@ -11630,7 +11732,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>375</v>
       </c>
@@ -11650,7 +11752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>375</v>
       </c>
@@ -11670,7 +11772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>375</v>
       </c>
@@ -11690,7 +11792,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>375</v>
       </c>
@@ -11710,7 +11812,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>375</v>
       </c>
@@ -11730,7 +11832,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>375</v>
       </c>
@@ -11750,7 +11852,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>375</v>
       </c>
@@ -11770,7 +11872,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>375</v>
       </c>
@@ -11790,7 +11892,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>375</v>
       </c>
@@ -11810,7 +11912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>375</v>
       </c>
@@ -11830,7 +11932,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>375</v>
       </c>
@@ -11850,7 +11952,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>375</v>
       </c>
@@ -11870,7 +11972,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>375</v>
       </c>
@@ -11890,7 +11992,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>375</v>
       </c>
@@ -11910,7 +12012,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>375</v>
       </c>
@@ -11930,7 +12032,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>375</v>
       </c>
@@ -11950,7 +12052,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>375</v>
       </c>
@@ -11970,7 +12072,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>375</v>
       </c>
@@ -11990,7 +12092,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>375</v>
       </c>
@@ -12008,6 +12110,106 @@
       </c>
       <c r="F147" s="2" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B148" s="10">
+        <v>400</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E148" s="26">
+        <v>160284</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B149" s="10">
+        <v>400</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E149" s="26">
+        <v>160285</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" s="10">
+        <v>400</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E150" s="26">
+        <v>160286</v>
+      </c>
+      <c r="F150" s="36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="10">
+        <v>400</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E151" s="26">
+        <v>160287</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B152" s="10">
+        <v>400</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E152" s="17">
+        <v>160288</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -12021,25 +12223,25 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12059,7 +12261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>423</v>
       </c>
@@ -12079,7 +12281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>423</v>
       </c>
@@ -12099,7 +12301,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>423</v>
       </c>
@@ -12119,7 +12321,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>423</v>
       </c>
@@ -12139,7 +12341,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>423</v>
       </c>
@@ -12159,7 +12361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>423</v>
       </c>
@@ -12179,7 +12381,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>423</v>
       </c>
@@ -12199,7 +12401,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>423</v>
       </c>
@@ -12219,7 +12421,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>423</v>
       </c>
@@ -12239,7 +12441,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>423</v>
       </c>
@@ -12259,7 +12461,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>423</v>
       </c>
@@ -12279,7 +12481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>423</v>
       </c>
@@ -12299,7 +12501,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>423</v>
       </c>
@@ -12319,7 +12521,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>423</v>
       </c>
@@ -12339,7 +12541,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>423</v>
       </c>
@@ -12359,7 +12561,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>423</v>
       </c>
@@ -12379,7 +12581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>423</v>
       </c>
@@ -12399,7 +12601,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>423</v>
       </c>
@@ -12419,7 +12621,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>423</v>
       </c>
@@ -12439,7 +12641,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>423</v>
       </c>
@@ -12459,7 +12661,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>423</v>
       </c>
@@ -12479,7 +12681,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>423</v>
       </c>
@@ -12499,7 +12701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>423</v>
       </c>
@@ -12519,7 +12721,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>423</v>
       </c>
@@ -12539,7 +12741,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>423</v>
       </c>
@@ -12559,7 +12761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>423</v>
       </c>
@@ -12579,7 +12781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>423</v>
       </c>
@@ -12599,7 +12801,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>423</v>
       </c>
@@ -12619,7 +12821,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>423</v>
       </c>
@@ -12639,7 +12841,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>423</v>
       </c>
@@ -12659,7 +12861,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>423</v>
       </c>
@@ -12679,7 +12881,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>423</v>
       </c>
@@ -12699,7 +12901,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>423</v>
       </c>
@@ -12719,7 +12921,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>423</v>
       </c>
@@ -12739,7 +12941,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>423</v>
       </c>
@@ -12757,6 +12959,26 @@
       </c>
       <c r="F36" s="2" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" s="10">
+        <v>400</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E37" s="24">
+        <v>160291</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -12771,25 +12993,25 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12809,7 +13031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -12829,7 +13051,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -12849,7 +13071,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -12869,7 +13091,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -12889,7 +13111,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -12909,7 +13131,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>488</v>
       </c>
@@ -12929,7 +13151,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -12949,7 +13171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>488</v>
       </c>
@@ -12969,7 +13191,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>488</v>
       </c>
@@ -12989,7 +13211,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>488</v>
       </c>
@@ -13009,7 +13231,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>488</v>
       </c>
@@ -13029,7 +13251,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>488</v>
       </c>
@@ -13049,7 +13271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -13069,7 +13291,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>488</v>
       </c>
@@ -13089,7 +13311,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>488</v>
       </c>
@@ -13109,7 +13331,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13129,7 +13351,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -13149,7 +13371,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>488</v>
       </c>
@@ -13169,7 +13391,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>488</v>
       </c>
@@ -13189,7 +13411,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>488</v>
       </c>
@@ -13209,7 +13431,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -13229,7 +13451,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -13249,7 +13471,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>488</v>
       </c>
@@ -13269,7 +13491,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>488</v>
       </c>
@@ -13289,7 +13511,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>488</v>
       </c>
@@ -13309,7 +13531,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -13329,7 +13551,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>488</v>
       </c>
@@ -13349,7 +13571,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -13363,13 +13585,13 @@
         <v>489</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>488</v>
       </c>
@@ -13382,14 +13604,14 @@
       <c r="D30" t="s">
         <v>489</v>
       </c>
-      <c r="E30" s="24">
-        <v>160286</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="26">
+        <v>160284</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>488</v>
       </c>
@@ -13402,11 +13624,71 @@
       <c r="D31" t="s">
         <v>489</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="26">
+        <v>160285</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E32" s="26">
+        <v>160286</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="26">
         <v>160287</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>691</v>
+      <c r="F33" s="36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E34" s="17">
+        <v>160288</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -13419,22 +13701,24 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="59.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13454,7 +13738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>535</v>
       </c>
@@ -13474,7 +13758,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>535</v>
       </c>
@@ -13494,7 +13778,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>535</v>
       </c>
@@ -13514,7 +13798,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>535</v>
       </c>
@@ -13534,7 +13818,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>535</v>
       </c>
@@ -13554,7 +13838,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>535</v>
       </c>
@@ -13574,7 +13858,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>535</v>
       </c>
@@ -13594,7 +13878,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>535</v>
       </c>
@@ -13614,7 +13898,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>535</v>
       </c>
@@ -13634,7 +13918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>535</v>
       </c>
@@ -13654,7 +13938,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>535</v>
       </c>
@@ -13674,7 +13958,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>535</v>
       </c>
@@ -13694,7 +13978,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>535</v>
       </c>
@@ -13714,7 +13998,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>535</v>
       </c>
@@ -13734,7 +14018,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>535</v>
       </c>
@@ -13752,6 +14036,26 @@
       </c>
       <c r="F16" s="10" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="11">
+        <v>400</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E17" s="24">
+        <v>160291</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -13761,15 +14065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14015,6 +14310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14029,14 +14333,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14052,6 +14348,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD22E3-FFB2-4FFE-8026-20B5255FF734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B4F211-0B4C-492B-99CC-CDFDB689EC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="5" activeTab="5" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="1" activeTab="7" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="701">
   <si>
     <t>API</t>
   </si>
@@ -2147,6 +2147,25 @@
   </si>
   <si>
     <t>Zip code combination does not qualify for the selected mail class</t>
+  </si>
+  <si>
+    <t>A non-zero item value is required for this extra service code.</t>
+  </si>
+  <si>
+    <t>030024</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/prices/v3/base-rates/search
+https://api.usps.com/prices/v3/total-rates/search</t>
+  </si>
+  <si>
+    <t>{2X7LABEL / 3X5FMB} cannot be requested with packageNumber and trackingNumber</t>
+  </si>
+  <si>
+    <t>must include both packageNumber and totalPackages</t>
+  </si>
+  <si>
+    <t>cannot exceed totalPackages</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2363,6 +2382,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5881,11 +5906,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9138,11 +9163,85 @@
         <v>694</v>
       </c>
     </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B163" s="20">
+        <v>400</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B164" s="20">
+        <v>400</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E164" s="26">
+        <v>160291</v>
+      </c>
+      <c r="F164" t="s">
+        <v>698</v>
+      </c>
+    </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="24"/>
-      <c r="C165" s="10"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="35"/>
+      <c r="A165" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B165" s="20">
+        <v>400</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E165" s="26">
+        <v>160292</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B166" s="20">
+        <v>400</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E166" s="26">
+        <v>160293</v>
+      </c>
+      <c r="F166" t="s">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{A36F69E6-5AC8-443F-8567-4E3FB7E927F1}"/>
@@ -9156,10 +9255,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12212,6 +12311,26 @@
         <v>694</v>
       </c>
     </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B153" s="10">
+        <v>400</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12223,11 +12342,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12951,7 +13070,7 @@
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="38" t="s">
         <v>439</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -12971,14 +13090,74 @@
       <c r="C37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="38" t="s">
         <v>439</v>
       </c>
       <c r="E37" s="24">
+        <v>160289</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B38" s="10">
+        <v>400</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E38" s="24">
+        <v>160290</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B39" s="10">
+        <v>400</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="24">
         <v>160291</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="10">
+        <v>400</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -12993,12 +13172,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13691,6 +13870,26 @@
         <v>694</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>489</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13701,7 +13900,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -13909,13 +14108,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>440</v>
+        <v>536</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>696</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>257</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -13932,10 +14131,10 @@
         <v>540</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13952,7 +14151,7 @@
         <v>540</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>442</v>
@@ -13971,11 +14170,11 @@
       <c r="D13" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>444</v>
+      <c r="E13" s="33" t="s">
+        <v>443</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -13992,7 +14191,7 @@
         <v>540</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>445</v>
@@ -14012,10 +14211,10 @@
         <v>540</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -14032,10 +14231,10 @@
         <v>540</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -14051,10 +14250,30 @@
       <c r="D17" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" s="11">
+        <v>400</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18" s="24">
         <v>160291</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>693</v>
       </c>
     </row>
@@ -14065,6 +14284,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14310,7 +14542,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -14319,20 +14551,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14352,28 +14589,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B4F211-0B4C-492B-99CC-CDFDB689EC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC07525-4750-4AF9-AB0B-C06060CD1223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="1" activeTab="7" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="3" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -33,9 +33,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Addresses!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Carrier Pickup'!$A$1:$F$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Domestic Labels Outbound'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Domestic Prices'!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Domestic Prices'!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General Errors'!$A$1:$D$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'International Prices'!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'International Prices'!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tracking!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="705">
   <si>
     <t>API</t>
   </si>
@@ -1490,9 +1490,6 @@
     <t>030022</t>
   </si>
   <si>
-    <t>Could not find base postage fro this piece.</t>
-  </si>
-  <si>
     <t>030023</t>
   </si>
   <si>
@@ -1674,9 +1671,6 @@
   </si>
   <si>
     <t>The provided mailing date is not supported. The earliest supported date is 2022-10-02.</t>
-  </si>
-  <si>
-    <t>Package size exceeds maximum allowed for mail class</t>
   </si>
   <si>
     <t>Could not find working sku from SSF ingredients</t>
@@ -2166,6 +2160,25 @@
   </si>
   <si>
     <t>cannot exceed totalPackages</t>
+  </si>
+  <si>
+    <t>sum of packageDescription.length and packageDescription.girth cannot exceed 108 inches for shipping to &lt;addressType&gt; ZIP code &lt;zip5&gt;</t>
+  </si>
+  <si>
+    <t>Return Label cannot be generated for restricted  &lt;addressType&gt;  ZIP Code &lt;ZIPCode&gt;</t>
+  </si>
+  <si>
+    <t>160195</t>
+  </si>
+  <si>
+    <t>Could not find base postage for this piece.</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/international-prices/v3/base-rates/search
+https://api.usps.com/international-prices/v3/total-rates/search</t>
+  </si>
+  <si>
+    <t>length, width, and height must either be all zero or greater than zero</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2382,12 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2892,27 +2899,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="10">
+        <v>400</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="B2" s="10">
-        <v>400</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="F2" t="s">
         <v>542</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B3" s="10">
         <v>400</v>
@@ -2921,18 +2928,18 @@
         <v>18</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B4" s="10">
         <v>400</v>
@@ -2941,18 +2948,18 @@
         <v>18</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B5" s="10">
         <v>400</v>
@@ -2961,18 +2968,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B6" s="10">
         <v>400</v>
@@ -2981,18 +2988,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B7" s="10">
         <v>400</v>
@@ -3001,18 +3008,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B8" s="10">
         <v>400</v>
@@ -3021,18 +3028,18 @@
         <v>18</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B9" s="10">
         <v>400</v>
@@ -3041,18 +3048,18 @@
         <v>18</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B10" s="10">
         <v>400</v>
@@ -3061,13 +3068,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -3117,27 +3124,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>563</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -3146,18 +3153,18 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="F3" t="s">
         <v>566</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4">
         <v>400</v>
@@ -3166,18 +3173,18 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -3186,18 +3193,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6">
         <v>400</v>
@@ -3206,18 +3213,18 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B7">
         <v>400</v>
@@ -3226,18 +3233,18 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B8">
         <v>400</v>
@@ -3246,18 +3253,18 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B9">
         <v>400</v>
@@ -3266,18 +3273,18 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B10">
         <v>400</v>
@@ -3286,18 +3293,18 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B11">
         <v>400</v>
@@ -3306,18 +3313,18 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B12">
         <v>400</v>
@@ -3326,18 +3333,18 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B13">
         <v>400</v>
@@ -3346,18 +3353,18 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B14">
         <v>400</v>
@@ -3366,18 +3373,18 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B15">
         <v>400</v>
@@ -3386,18 +3393,18 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B16">
         <v>400</v>
@@ -3406,18 +3413,18 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E16" s="24">
         <v>160289</v>
       </c>
       <c r="F16" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B17">
         <v>400</v>
@@ -3426,13 +3433,13 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E17" s="24">
         <v>160290</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -3483,27 +3490,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>594</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="F2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -3512,18 +3519,18 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B4">
         <v>400</v>
@@ -3532,18 +3539,18 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -3552,18 +3559,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B6" s="10">
         <v>400</v>
@@ -3572,18 +3579,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B7" s="10">
         <v>400</v>
@@ -3592,18 +3599,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B8" s="10">
         <v>400</v>
@@ -3612,18 +3619,18 @@
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B9" s="10">
         <v>400</v>
@@ -3632,18 +3639,18 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B10" s="10">
         <v>400</v>
@@ -3652,18 +3659,18 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B11" s="10">
         <v>400</v>
@@ -3672,18 +3679,18 @@
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B12" s="10">
         <v>400</v>
@@ -3692,18 +3699,18 @@
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B13" s="10">
         <v>400</v>
@@ -3712,18 +3719,18 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B14" s="10">
         <v>400</v>
@@ -3732,18 +3739,18 @@
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B15" s="10">
         <v>400</v>
@@ -3752,18 +3759,18 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B16" s="10">
         <v>400</v>
@@ -3772,13 +3779,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3824,32 +3831,32 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2" s="24">
+        <v>400</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="B2" s="24">
-        <v>400</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="32" t="s">
         <v>627</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B3" s="24">
         <v>400</v>
@@ -3858,18 +3865,18 @@
         <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B4" s="24">
         <v>400</v>
@@ -3878,13 +3885,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E4" s="26">
         <v>160288</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3942,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B2" s="30">
         <v>400</v>
@@ -3944,7 +3951,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>425</v>
@@ -3955,7 +3962,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B3" s="30">
         <v>400</v>
@@ -3964,7 +3971,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>94</v>
@@ -3975,7 +3982,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B4" s="30">
         <v>400</v>
@@ -3984,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>427</v>
@@ -3995,7 +4002,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B5" s="30">
         <v>400</v>
@@ -4004,7 +4011,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>429</v>
@@ -4015,7 +4022,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B6" s="30">
         <v>400</v>
@@ -4024,18 +4031,18 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>433</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B7" s="30">
         <v>400</v>
@@ -4044,18 +4051,18 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>436</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B8" s="31">
         <v>400</v>
@@ -4064,7 +4071,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>431</v>
@@ -4075,7 +4082,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B9" s="30">
         <v>400</v>
@@ -4084,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>135</v>
@@ -4095,7 +4102,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B10" s="30">
         <v>400</v>
@@ -4104,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>450</v>
@@ -4115,7 +4122,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B11" s="30">
         <v>400</v>
@@ -4124,7 +4131,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>452</v>
@@ -4135,7 +4142,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B12" s="30">
         <v>400</v>
@@ -4144,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>454</v>
@@ -4155,7 +4162,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B13" s="30">
         <v>400</v>
@@ -4164,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>456</v>
@@ -4175,7 +4182,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B14" s="30">
         <v>400</v>
@@ -4184,7 +4191,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>458</v>
@@ -4195,7 +4202,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B15" s="30">
         <v>400</v>
@@ -4204,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>460</v>
@@ -4215,7 +4222,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B16" s="30">
         <v>400</v>
@@ -4224,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>462</v>
@@ -4235,7 +4242,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B17" s="30">
         <v>400</v>
@@ -4244,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>464</v>
@@ -4255,7 +4262,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B18" s="30">
         <v>400</v>
@@ -4264,7 +4271,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>466</v>
@@ -4275,7 +4282,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B19" s="30">
         <v>400</v>
@@ -4284,7 +4291,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>468</v>
@@ -4295,7 +4302,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B20" s="30">
         <v>400</v>
@@ -4304,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>469</v>
@@ -4315,7 +4322,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B21" s="30">
         <v>400</v>
@@ -4324,7 +4331,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>471</v>
@@ -4335,7 +4342,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B22" s="31">
         <v>400</v>
@@ -4344,18 +4351,18 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B23" s="31">
         <v>400</v>
@@ -4364,18 +4371,18 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B24" s="31">
         <v>400</v>
@@ -4384,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>20</v>
@@ -4395,7 +4402,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B25" s="31">
         <v>400</v>
@@ -4404,7 +4411,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>22</v>
@@ -4415,7 +4422,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B26" s="31">
         <v>400</v>
@@ -4424,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>24</v>
@@ -4435,7 +4442,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B27" s="31">
         <v>400</v>
@@ -4444,7 +4451,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>26</v>
@@ -4455,7 +4462,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B28" s="31">
         <v>400</v>
@@ -4464,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>28</v>
@@ -4475,7 +4482,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B29" s="31">
         <v>400</v>
@@ -4484,7 +4491,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>30</v>
@@ -4495,7 +4502,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B30" s="31">
         <v>400</v>
@@ -4504,18 +4511,18 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B31" s="31">
         <v>400</v>
@@ -4524,18 +4531,18 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F31" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B32" s="31">
         <v>400</v>
@@ -4544,18 +4551,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B33" s="31">
         <v>400</v>
@@ -4564,10 +4571,10 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F33" t="s">
         <v>288</v>
@@ -4575,7 +4582,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B34" s="31">
         <v>400</v>
@@ -4584,18 +4591,18 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B35" s="31">
         <v>400</v>
@@ -4604,18 +4611,18 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B36" s="31">
         <v>400</v>
@@ -4624,10 +4631,10 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F36" t="s">
         <v>266</v>
@@ -4635,7 +4642,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B37" s="31">
         <v>400</v>
@@ -4644,10 +4651,10 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F37" t="s">
         <v>266</v>
@@ -4655,7 +4662,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B38" s="31">
         <v>400</v>
@@ -4664,18 +4671,18 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B39" s="31">
         <v>400</v>
@@ -4684,13 +4691,13 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F39" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -4742,27 +4749,27 @@
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" s="10">
+        <v>400</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="B2" s="10">
-        <v>400</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>655</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B3" s="10">
         <v>400</v>
@@ -4771,18 +4778,18 @@
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B4" s="10">
         <v>400</v>
@@ -4791,18 +4798,18 @@
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B5" s="10">
         <v>400</v>
@@ -4811,18 +4818,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B6" s="10">
         <v>400</v>
@@ -4831,18 +4838,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>664</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B7" s="10">
         <v>400</v>
@@ -4851,18 +4858,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B8" s="10">
         <v>400</v>
@@ -4871,18 +4878,18 @@
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B9" s="10">
         <v>400</v>
@@ -4891,18 +4898,18 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B10" s="10">
         <v>400</v>
@@ -4911,18 +4918,18 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B11" s="10">
         <v>400</v>
@@ -4931,18 +4938,18 @@
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B12" s="10">
         <v>400</v>
@@ -4951,18 +4958,18 @@
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B13" s="10">
         <v>400</v>
@@ -4971,18 +4978,18 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B14" s="10">
         <v>400</v>
@@ -4991,13 +4998,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -5906,11 +5913,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8484,23 +8491,23 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B129" s="20">
-        <v>400</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
-        <v>314</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>324</v>
+      <c r="A129" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="21">
+        <v>400</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E129" s="24">
+        <v>160183</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8517,10 +8524,10 @@
         <v>314</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,10 +8544,10 @@
         <v>314</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8557,10 +8564,10 @@
         <v>314</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -8573,34 +8580,34 @@
       <c r="C133" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="21" t="s">
-        <v>92</v>
+      <c r="D133" t="s">
+        <v>314</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B134" s="20">
-        <v>400</v>
-      </c>
-      <c r="C134" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="21">
+        <v>400</v>
+      </c>
+      <c r="C134" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E134" s="24" t="s">
-        <v>333</v>
+      <c r="E134" s="24">
+        <v>160188</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -8617,13 +8624,13 @@
         <v>92</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>91</v>
       </c>
@@ -8637,10 +8644,10 @@
         <v>92</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -8657,10 +8664,10 @@
         <v>92</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>339</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8677,10 +8684,10 @@
         <v>92</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -8697,10 +8704,10 @@
         <v>92</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8717,10 +8724,10 @@
         <v>92</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -8733,17 +8740,17 @@
       <c r="C141" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D141" t="s">
-        <v>314</v>
-      </c>
-      <c r="E141" s="24">
-        <v>160248</v>
-      </c>
-      <c r="F141" s="35" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>91</v>
       </c>
@@ -8753,14 +8760,14 @@
       <c r="C142" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D142" t="s">
-        <v>314</v>
+      <c r="D142" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="F142" s="35" t="s">
-        <v>484</v>
+        <v>344</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -8776,11 +8783,11 @@
       <c r="D143" t="s">
         <v>314</v>
       </c>
-      <c r="E143" s="24" t="s">
-        <v>349</v>
+      <c r="E143" s="24">
+        <v>160248</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -8797,10 +8804,10 @@
         <v>314</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -8817,10 +8824,10 @@
         <v>314</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -8833,14 +8840,14 @@
       <c r="C146" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="21" t="s">
-        <v>92</v>
+      <c r="D146" t="s">
+        <v>314</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F146" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="F146" s="35" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -8853,14 +8860,14 @@
       <c r="C147" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="21" t="s">
-        <v>92</v>
+      <c r="D147" t="s">
+        <v>314</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="F147" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8877,10 +8884,10 @@
         <v>92</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F148" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8897,190 +8904,190 @@
         <v>92</v>
       </c>
       <c r="E149" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F149" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" s="21">
+        <v>400</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F150" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="21">
+        <v>400</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E151" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F151" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B150" s="20">
-        <v>400</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E150" s="17" t="s">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" s="21">
+        <v>400</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="24">
+        <v>160263</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" s="21">
+        <v>400</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E153" s="24">
+        <v>160264</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="21">
+        <v>400</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B151" s="20">
-        <v>400</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" s="17" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B155" s="21">
+        <v>400</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B152" s="20">
-        <v>400</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E152" s="17" t="s">
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" s="21">
+        <v>400</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B153" s="20">
-        <v>400</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E153" s="17">
-        <v>160188</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B154" s="20">
-        <v>400</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E154" s="17">
-        <v>160183</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B155" s="20">
-        <v>400</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E155" s="17">
-        <v>160263</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B156" s="20">
-        <v>400</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E156" s="17">
-        <v>160264</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
     <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B157" s="20">
-        <v>400</v>
-      </c>
-      <c r="C157" s="20" t="s">
+      <c r="A157" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" s="21">
+        <v>400</v>
+      </c>
+      <c r="C157" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B158" s="20">
-        <v>400</v>
-      </c>
-      <c r="C158" s="20" t="s">
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B158" s="21">
+        <v>400</v>
+      </c>
+      <c r="C158" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E158" s="17" t="s">
-        <v>683</v>
+      <c r="E158" s="24">
+        <v>160280</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -9096,11 +9103,11 @@
       <c r="D159" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E159" s="17" t="s">
-        <v>684</v>
+      <c r="E159" s="24" t="s">
+        <v>681</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -9116,11 +9123,11 @@
       <c r="D160" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E160" s="26">
-        <v>160286</v>
-      </c>
-      <c r="F160" s="36" t="s">
-        <v>689</v>
+      <c r="E160" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -9137,10 +9144,10 @@
         <v>92</v>
       </c>
       <c r="E161" s="26">
-        <v>160287</v>
+        <v>160286</v>
       </c>
       <c r="F161" s="36" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -9156,11 +9163,11 @@
       <c r="D162" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E162" s="17">
-        <v>160288</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>694</v>
+      <c r="E162" s="26">
+        <v>160287</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,11 +9183,11 @@
       <c r="D163" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E163" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>695</v>
+      <c r="E163" s="24">
+        <v>160288</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -9196,11 +9203,11 @@
       <c r="D164" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E164" s="26">
-        <v>160291</v>
-      </c>
-      <c r="F164" t="s">
-        <v>698</v>
+      <c r="E164" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -9217,10 +9224,10 @@
         <v>92</v>
       </c>
       <c r="E165" s="26">
-        <v>160292</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>699</v>
+        <v>160291</v>
+      </c>
+      <c r="F165" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9237,10 +9244,50 @@
         <v>92</v>
       </c>
       <c r="E166" s="26">
+        <v>160292</v>
+      </c>
+      <c r="F166" s="35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167" s="20">
+        <v>400</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E167" s="26">
         <v>160293</v>
       </c>
-      <c r="F166" t="s">
-        <v>700</v>
+      <c r="F167" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168" s="20">
+        <v>400</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168" s="26">
+        <v>160294</v>
+      </c>
+      <c r="F168" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -9255,10 +9302,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11742,13 +11789,13 @@
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>422</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="F124" t="s">
-        <v>325</v>
+        <v>376</v>
+      </c>
+      <c r="E124" s="24">
+        <v>160183</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -11765,10 +11812,10 @@
         <v>422</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F125" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -11785,10 +11832,10 @@
         <v>422</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F126" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -11805,10 +11852,10 @@
         <v>422</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -11822,73 +11869,73 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
+        <v>422</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F128" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="10">
+        <v>400</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E128" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="F128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B129" s="10">
-        <v>400</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="10">
+        <v>400</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E129" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F129" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B130" s="10">
-        <v>400</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="10">
+        <v>400</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E130" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B131" s="10">
-        <v>400</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
-        <v>376</v>
-      </c>
       <c r="E131" s="24" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -11901,17 +11948,17 @@
       <c r="C132" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="10" t="s">
         <v>376</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>375</v>
       </c>
@@ -11921,14 +11968,14 @@
       <c r="C133" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="10" t="s">
         <v>376</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -11941,17 +11988,17 @@
       <c r="C134" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="10" t="s">
         <v>376</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>375</v>
       </c>
@@ -11961,14 +12008,14 @@
       <c r="C135" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="10" t="s">
         <v>376</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -11981,17 +12028,17 @@
       <c r="C136" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D136" t="s">
-        <v>422</v>
-      </c>
-      <c r="E136" s="24">
-        <v>160248</v>
-      </c>
-      <c r="F136" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>375</v>
       </c>
@@ -12001,14 +12048,14 @@
       <c r="C137" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D137" t="s">
-        <v>422</v>
+      <c r="D137" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="F137" t="s">
-        <v>348</v>
+        <v>416</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -12022,13 +12069,13 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F138" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -12042,13 +12089,13 @@
         <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F139" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -12062,16 +12109,16 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F140" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>375</v>
       </c>
@@ -12085,10 +12132,10 @@
         <v>376</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F141" t="s">
-        <v>356</v>
+        <v>336</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -12105,13 +12152,13 @@
         <v>376</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="F142" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>375</v>
       </c>
@@ -12125,10 +12172,10 @@
         <v>376</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F143" t="s">
-        <v>360</v>
+        <v>340</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -12145,13 +12192,13 @@
         <v>376</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="F144" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>375</v>
       </c>
@@ -12164,11 +12211,11 @@
       <c r="D145" t="s">
         <v>376</v>
       </c>
-      <c r="E145" s="17" t="s">
-        <v>363</v>
+      <c r="E145" s="24" t="s">
+        <v>344</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -12182,16 +12229,16 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>376</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="E146" s="24">
+        <v>160248</v>
+      </c>
+      <c r="F146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>375</v>
       </c>
@@ -12201,14 +12248,14 @@
       <c r="C147" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>376</v>
+      <c r="D147" t="s">
+        <v>422</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
+      </c>
+      <c r="F147" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -12221,14 +12268,14 @@
       <c r="C148" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E148" s="26">
-        <v>160284</v>
-      </c>
-      <c r="F148" s="22" t="s">
-        <v>685</v>
+      <c r="D148" t="s">
+        <v>422</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="F148" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -12241,14 +12288,14 @@
       <c r="C149" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E149" s="26">
-        <v>160285</v>
-      </c>
-      <c r="F149" s="22" t="s">
-        <v>686</v>
+      <c r="D149" t="s">
+        <v>422</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F149" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -12261,14 +12308,14 @@
       <c r="C150" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E150" s="26">
-        <v>160286</v>
-      </c>
-      <c r="F150" s="36" t="s">
-        <v>689</v>
+      <c r="D150" t="s">
+        <v>422</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F150" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -12281,14 +12328,14 @@
       <c r="C151" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" t="s">
         <v>376</v>
       </c>
-      <c r="E151" s="26">
-        <v>160287</v>
-      </c>
-      <c r="F151" s="36" t="s">
-        <v>690</v>
+      <c r="E151" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F151" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -12301,14 +12348,14 @@
       <c r="C152" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" t="s">
         <v>376</v>
       </c>
-      <c r="E152" s="17">
-        <v>160288</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>694</v>
+      <c r="E152" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F152" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -12321,14 +12368,254 @@
       <c r="C153" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" t="s">
         <v>376</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>695</v>
+        <v>359</v>
+      </c>
+      <c r="F153" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B154" s="10">
+        <v>400</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>376</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F154" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B155" s="10">
+        <v>400</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>376</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B156" s="10">
+        <v>400</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>376</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B157" s="10">
+        <v>400</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="10">
+        <v>400</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E158" s="24">
+        <v>160280</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159" s="10">
+        <v>400</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E159" s="26">
+        <v>160284</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B160" s="10">
+        <v>400</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" s="26">
+        <v>160285</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B161" s="10">
+        <v>400</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E161" s="26">
+        <v>160286</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" s="10">
+        <v>400</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E162" s="26">
+        <v>160287</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B163" s="10">
+        <v>400</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E163" s="17">
+        <v>160288</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B164" s="10">
+        <v>400</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B165" s="10">
+        <v>400</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E165" s="26">
+        <v>160294</v>
+      </c>
+      <c r="F165" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -12345,8 +12632,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12381,43 +12668,43 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="11">
-        <v>400</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10">
+        <v>400</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>424</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>94</v>
+        <v>425</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="10">
-        <v>400</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11">
+        <v>400</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>424</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>425</v>
+        <v>94</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12474,13 +12761,13 @@
         <v>424</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>423</v>
       </c>
@@ -12494,10 +12781,10 @@
         <v>424</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12514,10 +12801,10 @@
         <v>424</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12534,13 +12821,13 @@
         <v>424</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>423</v>
       </c>
@@ -12554,10 +12841,10 @@
         <v>424</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12574,10 +12861,10 @@
         <v>424</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>438</v>
+        <v>135</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12590,14 +12877,14 @@
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>257</v>
+      <c r="D12" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12610,14 +12897,14 @@
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>442</v>
+      <c r="D13" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12630,14 +12917,14 @@
       <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>442</v>
+      <c r="D14" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12650,17 +12937,17 @@
       <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>439</v>
+      <c r="D15" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>423</v>
       </c>
@@ -12670,14 +12957,14 @@
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>439</v>
+      <c r="D16" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>445</v>
+        <v>458</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12690,14 +12977,14 @@
       <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>439</v>
+      <c r="D17" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>448</v>
+        <v>460</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12710,14 +12997,14 @@
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>439</v>
+      <c r="D18" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>356</v>
+        <v>462</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12734,10 +13021,10 @@
         <v>424</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>451</v>
+        <v>464</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12754,10 +13041,10 @@
         <v>424</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>453</v>
+        <v>466</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12774,10 +13061,10 @@
         <v>424</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>455</v>
+        <v>468</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12794,13 +13081,13 @@
         <v>424</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>423</v>
       </c>
@@ -12814,10 +13101,10 @@
         <v>424</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12834,10 +13121,10 @@
         <v>424</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>461</v>
+        <v>473</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12854,10 +13141,10 @@
         <v>424</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>463</v>
+        <v>475</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12874,13 +13161,13 @@
         <v>424</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>423</v>
       </c>
@@ -12891,13 +13178,13 @@
         <v>18</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>424</v>
+        <v>695</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>467</v>
+        <v>694</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12910,14 +13197,14 @@
       <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>424</v>
+      <c r="D28" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>478</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12930,14 +13217,14 @@
       <c r="C29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>424</v>
+      <c r="D29" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12950,14 +13237,14 @@
       <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>472</v>
+      <c r="D30" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12970,14 +13257,14 @@
       <c r="C31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>474</v>
+      <c r="D31" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12990,14 +13277,14 @@
       <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>475</v>
+      <c r="D32" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>443</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -13010,14 +13297,14 @@
       <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>424</v>
+      <c r="D33" s="17" t="s">
+        <v>439</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13030,14 +13317,14 @@
       <c r="C34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="17" t="s">
         <v>439</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>435</v>
+        <v>446</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13050,17 +13337,17 @@
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="17" t="s">
         <v>439</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>423</v>
       </c>
@@ -13070,17 +13357,17 @@
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="17" t="s">
         <v>439</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>423</v>
       </c>
@@ -13090,14 +13377,14 @@
       <c r="C37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="E37" s="24">
-        <v>160289</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>691</v>
+      <c r="E37" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13110,14 +13397,14 @@
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="10" t="s">
         <v>439</v>
       </c>
       <c r="E38" s="24">
-        <v>160290</v>
+        <v>160289</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13134,13 +13421,13 @@
         <v>439</v>
       </c>
       <c r="E39" s="24">
-        <v>160291</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>160290</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>423</v>
       </c>
@@ -13150,18 +13437,18 @@
       <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>696</v>
+      <c r="D40" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E40" s="24">
+        <v>160291</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{E9D67488-3AD8-4C63-B43B-F8AB72C087A6}"/>
+  <autoFilter ref="A1:F11" xr:uid="{E9D67488-3AD8-4C63-B43B-F8AB72C087A6}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13174,10 +13461,10 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13212,96 +13499,96 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>488</v>
       </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" t="s">
         <v>490</v>
-      </c>
-      <c r="F2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>488</v>
       </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>489</v>
-      </c>
       <c r="E3" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" t="s">
         <v>492</v>
-      </c>
-      <c r="F3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>488</v>
       </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>489</v>
-      </c>
       <c r="E4" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" t="s">
         <v>494</v>
-      </c>
-      <c r="F4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>488</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>489</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>488</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>489</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>458</v>
@@ -13312,119 +13599,119 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>488</v>
       </c>
-      <c r="B7">
-        <v>400</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>489</v>
-      </c>
       <c r="E7" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" t="s">
         <v>497</v>
-      </c>
-      <c r="F7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>488</v>
       </c>
-      <c r="B8">
-        <v>400</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>489</v>
-      </c>
       <c r="E8" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" t="s">
         <v>499</v>
-      </c>
-      <c r="F8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>488</v>
       </c>
-      <c r="B9">
-        <v>400</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>489</v>
-      </c>
       <c r="E9" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F9" t="s">
         <v>501</v>
-      </c>
-      <c r="F9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>488</v>
       </c>
-      <c r="B10">
-        <v>400</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>489</v>
-      </c>
       <c r="E10" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" t="s">
         <v>503</v>
-      </c>
-      <c r="F10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>488</v>
       </c>
-      <c r="B11">
-        <v>400</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>489</v>
-      </c>
       <c r="E11" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" t="s">
         <v>505</v>
-      </c>
-      <c r="F11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>488</v>
       </c>
-      <c r="B12">
-        <v>400</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>489</v>
-      </c>
       <c r="E12" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F12" t="s">
         <v>257</v>
@@ -13432,19 +13719,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>488</v>
       </c>
-      <c r="B13">
-        <v>400</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>489</v>
-      </c>
       <c r="E13" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
         <v>257</v>
@@ -13452,79 +13739,79 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>488</v>
       </c>
-      <c r="B14">
-        <v>400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>489</v>
-      </c>
       <c r="E14" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" t="s">
         <v>509</v>
-      </c>
-      <c r="F14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15">
+        <v>400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>488</v>
       </c>
-      <c r="B15">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>489</v>
-      </c>
       <c r="E15" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15" t="s">
         <v>511</v>
-      </c>
-      <c r="F15" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>488</v>
       </c>
-      <c r="B16">
-        <v>400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>489</v>
-      </c>
       <c r="E16" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="F16" t="s">
         <v>513</v>
-      </c>
-      <c r="F16" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
         <v>488</v>
       </c>
-      <c r="B17">
-        <v>400</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>489</v>
-      </c>
       <c r="E17" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>396</v>
@@ -13532,119 +13819,119 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>488</v>
       </c>
-      <c r="B18">
-        <v>400</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>489</v>
-      </c>
       <c r="E18" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>488</v>
       </c>
-      <c r="B19">
-        <v>400</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>489</v>
-      </c>
       <c r="E19" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>488</v>
       </c>
-      <c r="B20">
-        <v>400</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>489</v>
-      </c>
       <c r="E20" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>488</v>
       </c>
-      <c r="B21">
-        <v>400</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>489</v>
-      </c>
       <c r="E21" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>488</v>
       </c>
-      <c r="B22">
-        <v>400</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>489</v>
-      </c>
       <c r="E22" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
         <v>488</v>
       </c>
-      <c r="B23">
-        <v>400</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>489</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>345</v>
@@ -13652,36 +13939,36 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>488</v>
       </c>
-      <c r="B24">
-        <v>400</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>489</v>
-      </c>
       <c r="E24" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="F24" t="s">
         <v>527</v>
-      </c>
-      <c r="F24" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>488</v>
-      </c>
-      <c r="B25">
-        <v>400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>489</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>361</v>
@@ -13692,202 +13979,202 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>488</v>
       </c>
-      <c r="B26">
-        <v>400</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>489</v>
-      </c>
       <c r="E26" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27">
+        <v>400</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
         <v>488</v>
       </c>
-      <c r="B27">
-        <v>400</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>489</v>
-      </c>
       <c r="E27" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
         <v>488</v>
       </c>
-      <c r="B28">
-        <v>400</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>489</v>
-      </c>
       <c r="E28" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>488</v>
       </c>
-      <c r="B29">
-        <v>400</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>489</v>
-      </c>
       <c r="E29" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30">
+        <v>400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
         <v>488</v>
-      </c>
-      <c r="B30">
-        <v>400</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>489</v>
       </c>
       <c r="E30" s="26">
         <v>160284</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
         <v>488</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>489</v>
       </c>
       <c r="E31" s="26">
         <v>160285</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
         <v>488</v>
-      </c>
-      <c r="B32">
-        <v>400</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>489</v>
       </c>
       <c r="E32" s="26">
         <v>160286</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>488</v>
-      </c>
-      <c r="B33">
-        <v>400</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>489</v>
       </c>
       <c r="E33" s="26">
         <v>160287</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
         <v>488</v>
-      </c>
-      <c r="B34">
-        <v>400</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>489</v>
       </c>
       <c r="E34" s="17">
         <v>160288</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
         <v>488</v>
       </c>
-      <c r="B35">
-        <v>400</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>489</v>
-      </c>
       <c r="E35" s="24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -13900,10 +14187,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13937,348 +14224,588 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="11">
+        <v>400</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="11">
-        <v>400</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="11">
+        <v>400</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" s="11">
+        <v>400</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="11">
-        <v>400</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="11">
+        <v>400</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B4" s="11">
-        <v>400</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="E5" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" s="11">
+        <v>400</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B5" s="11">
-        <v>400</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="E6" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="11">
+        <v>400</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="11">
-        <v>400</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="E7" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="11">
+        <v>400</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B7" s="11">
-        <v>400</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E8" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="11">
+        <v>400</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B8" s="11">
-        <v>400</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B9" s="11">
-        <v>400</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>536</v>
-      </c>
       <c r="E9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>539</v>
+        <v>431</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="11">
+        <v>400</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="11">
-        <v>400</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" s="11">
+        <v>400</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="11">
-        <v>400</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="11">
+        <v>400</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="11">
+        <v>400</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="11">
+        <v>400</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="11">
+        <v>400</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="11">
+        <v>400</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="11">
+        <v>400</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18" s="11">
+        <v>400</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="11">
+        <v>400</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20" s="11">
+        <v>400</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="11">
+        <v>400</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B12" s="11">
-        <v>400</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E12" s="33" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22" s="11">
+        <v>400</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B13" s="11">
-        <v>400</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E13" s="33" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23" s="11">
+        <v>400</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B14" s="11">
-        <v>400</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E14" s="24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24" s="11">
+        <v>400</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B15" s="11">
-        <v>400</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E15" s="24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="11">
+        <v>400</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B16" s="11">
-        <v>400</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E16" s="24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26" s="11">
+        <v>400</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" s="11">
-        <v>400</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E17" s="24" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="11">
+        <v>400</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B18" s="11">
-        <v>400</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E18" s="24">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" s="11">
+        <v>400</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E28" s="24">
+        <v>160289</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" s="11">
+        <v>400</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E29" s="24">
+        <v>160290</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="11">
+        <v>400</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E30" s="24">
         <v>160291</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>693</v>
+      <c r="F30" s="10" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{08340D05-E7E7-4BC4-9A22-47A71357FA3C}"/>
+  <autoFilter ref="A1:F15" xr:uid="{08340D05-E7E7-4BC4-9A22-47A71357FA3C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC07525-4750-4AF9-AB0B-C06060CD1223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B48E8E-922B-4387-BEC6-2F67235E4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="3" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="3" activeTab="3" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="711">
   <si>
     <t>API</t>
   </si>
@@ -2179,6 +2179,24 @@
   </si>
   <si>
     <t>length, width, and height must either be all zero or greater than zero</t>
+  </si>
+  <si>
+    <t>must include at least one container tracking number</t>
+  </si>
+  <si>
+    <t>containers were not closed because one or more of requested containers are either closed or were not found</t>
+  </si>
+  <si>
+    <t>container already closed: {id}</t>
+  </si>
+  <si>
+    <t>unable to find container with id: {id}</t>
+  </si>
+  <si>
+    <t>Label Delivery Service [415] is not supported with customs forms</t>
+  </si>
+  <si>
+    <t>The provided order is not eligible for a refund in this API</t>
   </si>
 </sst>
 </file>
@@ -2415,9 +2433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2455,7 +2473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2561,7 +2579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2703,7 +2721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5687,10 +5705,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,6 +5921,106 @@
         <v>90</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="10">
+        <v>400</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="24">
+        <v>160295</v>
+      </c>
+      <c r="F11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="10">
+        <v>400</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="24">
+        <v>160296</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="10">
+        <v>400</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="24">
+        <v>160297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="10">
+        <v>400</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="24">
+        <v>160298</v>
+      </c>
+      <c r="F14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10">
+        <v>400</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="24">
+        <v>160299</v>
+      </c>
+      <c r="F15" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5913,11 +6031,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9290,6 +9408,46 @@
         <v>704</v>
       </c>
     </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="20">
+        <v>400</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E169" s="24">
+        <v>160300</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B170" s="20">
+        <v>400</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E170" s="24">
+        <v>160301</v>
+      </c>
+      <c r="F170" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{A36F69E6-5AC8-443F-8567-4E3FB7E927F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9302,10 +9460,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12616,6 +12774,46 @@
       </c>
       <c r="F165" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B166" s="10">
+        <v>400</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E166" s="24">
+        <v>160300</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B167" s="10">
+        <v>400</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E167" s="24">
+        <v>160301</v>
+      </c>
+      <c r="F167" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -14824,6 +15022,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15069,15 +15276,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
@@ -15097,6 +15295,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15116,14 +15322,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6c9b68e5-0371-4f27-93af-8d15f794dc29}" enabled="1" method="Privileged" siteId="{a01f407a-85cb-4a16-98bb-f28e6384bd28}" removed="0"/>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B48E8E-922B-4387-BEC6-2F67235E4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3962E13-9444-49FE-B079-4BA54CF3D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="3" activeTab="3" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
@@ -15022,15 +15022,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15276,6 +15267,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
@@ -15295,14 +15295,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15322,6 +15314,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6c9b68e5-0371-4f27-93af-8d15f794dc29}" enabled="1" method="Privileged" siteId="{a01f407a-85cb-4a16-98bb-f28e6384bd28}" removed="0"/>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3962E13-9444-49FE-B079-4BA54CF3D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60B8844-98FB-4A14-B67D-AC8EDD135564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="3" activeTab="3" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="716">
   <si>
     <t>API</t>
   </si>
@@ -2197,6 +2197,21 @@
   </si>
   <si>
     <t>The provided order is not eligible for a refund in this API</t>
+  </si>
+  <si>
+    <t>Must be enrolled in USPS Ship Outbound in order to create labels</t>
+  </si>
+  <si>
+    <t>Must be enrolled in USPS Ship Returns in order to create labels with return labels</t>
+  </si>
+  <si>
+    <t>Must be enrolled in USPS Ship Returns in order to create return labels</t>
+  </si>
+  <si>
+    <t>Must be enrolled in USPS Ship Outbound in order to create international labels</t>
+  </si>
+  <si>
+    <t>No valid rates for these mail classes</t>
   </si>
 </sst>
 </file>
@@ -5707,8 +5722,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,11 +6046,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
+      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,6 +9463,46 @@
         <v>710</v>
       </c>
     </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B171" s="20">
+        <v>400</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E171" s="24">
+        <v>160302</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B172" s="20">
+        <v>400</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E172" s="24">
+        <v>160303</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{A36F69E6-5AC8-443F-8567-4E3FB7E927F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9460,10 +9515,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12816,6 +12871,26 @@
         <v>710</v>
       </c>
     </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B168" s="10">
+        <v>400</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E168" s="24">
+        <v>160304</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12827,11 +12902,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13645,6 +13720,26 @@
         <v>691</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" s="10">
+        <v>400</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E41" s="24">
+        <v>160306</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F11" xr:uid="{E9D67488-3AD8-4C63-B43B-F8AB72C087A6}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13657,12 +13752,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E19"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14373,6 +14468,26 @@
       </c>
       <c r="F35" s="10" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E36" s="26">
+        <v>160305</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -15022,6 +15137,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15267,15 +15391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
@@ -15295,6 +15410,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15314,14 +15437,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6c9b68e5-0371-4f27-93af-8d15f794dc29}" enabled="1" method="Privileged" siteId="{a01f407a-85cb-4a16-98bb-f28e6384bd28}" removed="0"/>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437FC1D-9988-48D8-B5D3-B8B52B49C195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A151C24B-DDC8-470E-BAE3-97FFE4821CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
@@ -24,10 +24,11 @@
     <sheet name="International Prices" sheetId="7" r:id="rId9"/>
     <sheet name="Location" sheetId="13" r:id="rId10"/>
     <sheet name="Payment" sheetId="18" r:id="rId11"/>
-    <sheet name="Scan Form" sheetId="14" r:id="rId12"/>
-    <sheet name="Service Standards" sheetId="17" r:id="rId13"/>
-    <sheet name="Shipping Options" sheetId="16" r:id="rId14"/>
-    <sheet name="Tracking" sheetId="1" r:id="rId15"/>
+    <sheet name="PMOD(Open and Distribute)" sheetId="19" r:id="rId12"/>
+    <sheet name="Scan Form" sheetId="14" r:id="rId13"/>
+    <sheet name="Service Standards" sheetId="17" r:id="rId14"/>
+    <sheet name="Shipping Options" sheetId="16" r:id="rId15"/>
+    <sheet name="Tracking" sheetId="1" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Addresses!$A$1:$G$3</definedName>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Domestic Prices'!$A$1:$G$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General Errors'!$A$1:$D$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'International Prices'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tracking!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Tracking!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="931">
   <si>
     <t>API</t>
   </si>
@@ -2755,12 +2756,6 @@
     <t>customer reference #3 cannot be used with a customs form</t>
   </si>
   <si>
-    <t>16316</t>
-  </si>
-  <si>
-    <t>16317</t>
-  </si>
-  <si>
     <t>indiciaDescription.mailClass, indiciaDescription.extraServices</t>
   </si>
   <si>
@@ -2774,6 +2769,101 @@
   </si>
   <si>
     <t>https://api.usps.com/labels/v3/indicia</t>
+  </si>
+  <si>
+    <t>imageInfo.brandingImageUUIDs</t>
+  </si>
+  <si>
+    <t>imageInfo.brandingImageFormat</t>
+  </si>
+  <si>
+    <t>brandingImageUUIDs must contain only two UUIDs when brandingImageFormat is 'TWO_SQUARES'</t>
+  </si>
+  <si>
+    <t>brandingImageUUIDs must contain only one UUID when brandingImageFormat is 'ONE_SQUARE' or 'RECTANGLE'</t>
+  </si>
+  <si>
+    <t>brandingImageFormat is required when brandingImageUUIDs are provided</t>
+  </si>
+  <si>
+    <t>customer reference #3-4 cannot be used with a branding image</t>
+  </si>
+  <si>
+    <t>brandingImageFormat currently does not support imageInfo.imageType of 'ZPL203DPI' or 'ZPL300DPI'</t>
+  </si>
+  <si>
+    <t>PMOD</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/pmod/v3/pmod/create</t>
+  </si>
+  <si>
+    <t>destinationEntryFacilityType must be 'DESTINATION_DELIVERY_UNIT' or 'DESTINATION_SERVICE_HUB' when processingCategory is 'MIXED'</t>
+  </si>
+  <si>
+    <t>Max image count 50 reached. Unable to upload. Images may be deleted to free space.</t>
+  </si>
+  <si>
+    <t>Crid provided in request was malformed</t>
+  </si>
+  <si>
+    <t>Invalid image provided. Image must be a valid SVG element base64 encoded.</t>
+  </si>
+  <si>
+    <t>Image with provided CRID + imageUUID does not exist for deletion</t>
+  </si>
+  <si>
+    <t>Image with provided CRID + imageUUID does not exist for retrieval</t>
+  </si>
+  <si>
+    <t>imageinfo.imagedata</t>
+  </si>
+  <si>
+    <t>The svg must contain a viewbox or length + width attributes</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/labels/v3/branding</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/labels/v3/branding/{imageUUID}</t>
+  </si>
+  <si>
+    <t>imageUUID
+CRID</t>
+  </si>
+  <si>
+    <t>CRID</t>
+  </si>
+  <si>
+    <t>provided brandingImageUUID does not exist</t>
+  </si>
+  <si>
+    <t>imageUUID</t>
+  </si>
+  <si>
+    <t>When 931 or 934 service codes are present, item value must be greater than 500</t>
+  </si>
+  <si>
+    <t>No locker is available for your size package</t>
+  </si>
+  <si>
+    <t>Address supplied is not a deliverable address: R777 Phantom Route physical address is not deliverable. Contact the recipient for their USPS Mail delivery address.</t>
+  </si>
+  <si>
+    <t>SVG element type 'image' with attribute 'xlink:href' is forbidden</t>
+  </si>
+  <si>
+    <t>SVG element type `script` is forbidden</t>
+  </si>
+  <si>
+    <t>SVG element type `style` is forbidden</t>
+  </si>
+  <si>
+    <t>SVG element type 'use' with attribute 'xlink:href' is forbidden</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/pmod/v3/pmod/create
+https://api.usps.com/pmod/v3/pmod/manifest/{container-id}</t>
   </si>
 </sst>
 </file>
@@ -3015,7 +3105,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -4149,6 +4241,157 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C1B7C1-6FF6-49B7-8FF7-3B1E3D2E2BE9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="126" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="10">
+        <v>400</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="10">
+        <v>400</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E3" s="24">
+        <v>160299</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B4" s="10">
+        <v>400</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E4" s="17">
+        <v>160321</v>
+      </c>
+      <c r="F4" t="s">
+        <v>876</v>
+      </c>
+      <c r="G4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" s="10">
+        <v>400</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>930</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080706B6-9387-41AC-AEC7-FBA9784CBC33}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4541,7 +4784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E19D90B-8A7E-4C9D-8766-50872932F6BA}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4660,7 +4903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B6B6E-42EB-430D-822F-B7D19114F059}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5528,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3BB263-4572-4BC8-8AF5-D80D70E936F3}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5862,7 +6105,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,7 +6331,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6581,8 +6824,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6974,11 +7217,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11203,17 +11446,17 @@
       <c r="C184" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="45" t="s">
-        <v>901</v>
-      </c>
-      <c r="E184" s="17" t="s">
+      <c r="D184" t="s">
+        <v>899</v>
+      </c>
+      <c r="E184" s="17">
+        <v>160316</v>
+      </c>
+      <c r="F184" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="F184" s="33" t="s">
+      <c r="G184" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,17 +11469,475 @@
       <c r="C185" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D185" s="45" t="s">
+      <c r="D185" t="s">
+        <v>899</v>
+      </c>
+      <c r="E185" s="17">
+        <v>160317</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B186" s="20">
+        <v>400</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E186" s="17">
+        <v>160326</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G186" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="20">
+        <v>400</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E187" s="17">
+        <v>160327</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G187" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B188" s="20">
+        <v>400</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E188" s="17">
+        <v>160328</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="E185" s="17" t="s">
+      <c r="G188" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B189" s="20">
+        <v>400</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E189" s="17">
+        <v>160329</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="G189" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="20">
+        <v>400</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E190" s="17">
+        <v>160330</v>
+      </c>
+      <c r="F190" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="G190" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="20">
+        <v>400</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>92</v>
+      </c>
+      <c r="E191" s="17">
+        <v>160336</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="G191" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B192" s="20">
+        <v>400</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>917</v>
+      </c>
+      <c r="E192" s="17">
+        <v>160331</v>
+      </c>
+      <c r="F192" s="37"/>
+      <c r="G192" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B193" s="20">
+        <v>400</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>917</v>
+      </c>
+      <c r="E193" s="17">
+        <v>160332</v>
+      </c>
+      <c r="F193" s="37" t="s">
+        <v>920</v>
+      </c>
+      <c r="G193" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194" s="20">
+        <v>400</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>917</v>
+      </c>
+      <c r="E194" s="17">
+        <v>160333</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G194" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="21">
+        <v>400</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="E195" s="24">
+        <v>160334</v>
+      </c>
+      <c r="F195" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B196" s="21">
+        <v>400</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="E196" s="24">
+        <v>160335</v>
+      </c>
+      <c r="F196" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B197" s="21">
+        <v>400</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>917</v>
+      </c>
+      <c r="E197" s="17">
+        <v>160337</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198" s="21">
+        <v>400</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>918</v>
+      </c>
+      <c r="E198" s="17">
+        <v>160338</v>
+      </c>
+      <c r="F198" s="37" t="s">
+        <v>922</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B199" s="21">
+        <v>400</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>899</v>
+      </c>
+      <c r="E199" s="17">
+        <v>160322</v>
+      </c>
+      <c r="F199" t="s">
         <v>896</v>
       </c>
-      <c r="F185" s="33" t="s">
-        <v>898</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>900</v>
+      <c r="G199" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B200" s="21">
+        <v>400</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E200" s="17">
+        <v>160319</v>
+      </c>
+      <c r="F200" t="s">
+        <v>719</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B201" s="21">
+        <v>400</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E201" s="24">
+        <v>160320</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" s="20">
+        <v>400</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>917</v>
+      </c>
+      <c r="E202" s="24">
+        <v>160339</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G202" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B203" s="20">
+        <v>400</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>917</v>
+      </c>
+      <c r="E203" s="24">
+        <v>160340</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G203" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B204" s="20">
+        <v>400</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>917</v>
+      </c>
+      <c r="E204" s="24">
+        <v>160341</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G204" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B205" s="20">
+        <v>400</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>917</v>
+      </c>
+      <c r="E205" s="24">
+        <v>160342</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G205" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -11252,10 +11953,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="D171" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15366,6 +16067,29 @@
       </c>
       <c r="G180" s="2" t="s">
         <v>710</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B181" s="21">
+        <v>400</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E181" s="24">
+        <v>160320</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -16290,9 +17014,9 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17139,7 +17863,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17810,19 +18534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17831,7 +18542,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18077,25 +18788,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18103,7 +18809,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18123,6 +18829,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6c9b68e5-0371-4f27-93af-8d15f794dc29}" enabled="1" method="Privileged" siteId="{a01f407a-85cb-4a16-98bb-f28e6384bd28}" removed="0"/>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A151C24B-DDC8-470E-BAE3-97FFE4821CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B525B85-05F7-41C5-828E-6FF531CAF845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="946">
   <si>
     <t>API</t>
   </si>
@@ -2864,6 +2864,51 @@
   <si>
     <t>https://api.usps.com/pmod/v3/pmod/create
 https://api.usps.com/pmod/v3/pmod/manifest/{container-id}</t>
+  </si>
+  <si>
+    <t>Container does not have any packages associated with it</t>
+  </si>
+  <si>
+    <t>Container is not a PMOD container</t>
+  </si>
+  <si>
+    <t>Unable to find valid label with trackingNumber: &lt;trackingNumber&gt;</t>
+  </si>
+  <si>
+    <t>Unable to add Priority Mail Express label &lt;barcode&gt; to Priority Mail Express Open Distribute container</t>
+  </si>
+  <si>
+    <t>Unable to add hazmat label &lt;barcode&gt; to Priority Mail Express Open Distribute container</t>
+  </si>
+  <si>
+    <t>Label &lt;barcode&gt; with status &lt;status&gt; is unable to be added to container</t>
+  </si>
+  <si>
+    <t>Unable to add label &lt;barcode&gt; with mail class &lt;mailClass&gt; to Open Distribute Container</t>
+  </si>
+  <si>
+    <t>trackingNumbers</t>
+  </si>
+  <si>
+    <t>containerId</t>
+  </si>
+  <si>
+    <t>https://api.usps.com/pmod/v3/pmod/manifest/{container-id}</t>
+  </si>
+  <si>
+    <t>4X4LABEL is not supported for this request</t>
+  </si>
+  <si>
+    <t>TWO_SQUARES' is supported on the following 'imageInfo.labelType' values: ['4X6LABEL', '4X5LABEL']</t>
+  </si>
+  <si>
+    <t>ONE_SQUARE' is supported on the following 'imageInfo.labelType' values: ['4X6LABEL', '4X5LABEL', and '2X7LABEL']</t>
+  </si>
+  <si>
+    <t>RECTANGLE' is supported on the following 'imageInfo.labelType' values: ['4X6LABEL', '4X5LABEL']</t>
+  </si>
+  <si>
+    <t>RECTANGLE' is only supported for Return Labels with 'imageInfo.labelType' of '4X5LABEL'</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +3020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3104,9 +3149,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4245,10 +4287,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4364,7 +4406,7 @@
       <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="2" t="s">
         <v>930</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -4377,14 +4419,166 @@
         <v>216</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" s="10">
+        <v>400</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>940</v>
+      </c>
+      <c r="E6" s="17">
+        <v>160344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>939</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="24"/>
+      <c r="A7" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="10">
+        <v>400</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>940</v>
+      </c>
+      <c r="E7" s="17">
+        <v>160345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>939</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="24"/>
+      <c r="A8" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" s="10">
+        <v>400</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E8" s="17">
+        <v>160350</v>
+      </c>
+      <c r="F8" t="s">
+        <v>938</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="17"/>
+      <c r="A9" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="10">
+        <v>400</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E9" s="17">
+        <v>160352</v>
+      </c>
+      <c r="F9" t="s">
+        <v>938</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" s="10">
+        <v>400</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10" s="17">
+        <v>160353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>938</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B11" s="10">
+        <v>400</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E11" s="17">
+        <v>160354</v>
+      </c>
+      <c r="F11" t="s">
+        <v>938</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B12" s="10">
+        <v>400</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E12" s="17">
+        <v>160355</v>
+      </c>
+      <c r="F12" t="s">
+        <v>938</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>937</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7217,11 +7411,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11940,6 +12134,98 @@
         <v>929</v>
       </c>
     </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B206" s="20">
+        <v>400</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E206" s="17">
+        <v>160347</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="G206" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B207" s="20">
+        <v>400</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E207" s="17">
+        <v>160348</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="G207" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B208" s="20">
+        <v>400</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E208" s="17">
+        <v>160349</v>
+      </c>
+      <c r="F208" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="G208" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B209" s="20">
+        <v>400</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E209" s="17">
+        <v>160351</v>
+      </c>
+      <c r="F209" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="G209" t="s">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{A36F69E6-5AC8-443F-8567-4E3FB7E927F1}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -11953,10 +12239,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView topLeftCell="D171" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+      <selection activeCell="E183" sqref="E183:G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16090,6 +16376,121 @@
       </c>
       <c r="G181" s="2" t="s">
         <v>925</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B182" s="21">
+        <v>400</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E182" s="17">
+        <v>160346</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G182" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B183" s="21">
+        <v>400</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E183" s="17">
+        <v>160347</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G183" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184" s="21">
+        <v>400</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E184" s="17">
+        <v>160348</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G184" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B185" s="21">
+        <v>400</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E185" s="17">
+        <v>160349</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G185" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B186" s="21">
+        <v>400</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E186" s="17">
+        <v>160351</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G186" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -18534,6 +18935,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18542,7 +18956,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18788,20 +19202,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18809,7 +19228,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18829,24 +19248,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6c9b68e5-0371-4f27-93af-8d15f794dc29}" enabled="1" method="Privileged" siteId="{a01f407a-85cb-4a16-98bb-f28e6384bd28}" removed="0"/>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B525B85-05F7-41C5-828E-6FF531CAF845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CC7E9-C00C-4BA8-8E4B-ABBBEC3A62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="13905" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="958">
   <si>
     <t>API</t>
   </si>
@@ -2910,12 +2910,48 @@
   <si>
     <t>RECTANGLE' is only supported for Return Labels with 'imageInfo.labelType' of '4X5LABEL'</t>
   </si>
+  <si>
+    <t>https://api.usps.com/labels/v3/indicia/imb/{imb#}</t>
+  </si>
+  <si>
+    <t>packageOptions.originalPackage.originalTrackingNumber is currently not supported when packageOptions.returnReceiptTracking is true</t>
+  </si>
+  <si>
+    <t>Indicia not found.</t>
+  </si>
+  <si>
+    <t>letter/flat cannot be more than %d days in the past</t>
+  </si>
+  <si>
+    <t>letter/flat is already canceled</t>
+  </si>
+  <si>
+    <t>letter/flat is already disputed</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>4X4LABEL currently does not support imageInfo.imageType of 'ZPL203DPI' or 'ZPL300DPI'</t>
+  </si>
+  <si>
+    <t>packageOptions.returnReceiptTracking</t>
+  </si>
+  <si>
+    <t>imb</t>
+  </si>
+  <si>
+    <t>imb.mailingDate</t>
+  </si>
+  <si>
+    <t>imb.status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2993,6 +3029,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3020,7 +3061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3148,6 +3189,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7411,11 +7456,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12226,6 +12271,167 @@
         <v>945</v>
       </c>
     </row>
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="20">
+        <v>400</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E210" s="17">
+        <v>160360</v>
+      </c>
+      <c r="F210" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B211" s="20">
+        <v>400</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E211" s="17">
+        <v>160361</v>
+      </c>
+      <c r="F211" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B212" s="20">
+        <v>400</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E212" s="17">
+        <v>160362</v>
+      </c>
+      <c r="F212" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B213" s="20">
+        <v>400</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E213" s="17">
+        <v>160363</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B214" s="20">
+        <v>400</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E214" s="17">
+        <v>160364</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B215" s="20">
+        <v>400</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E215" s="17">
+        <v>160364</v>
+      </c>
+      <c r="F215" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B216" s="20">
+        <v>400</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E216" s="17">
+        <v>160366</v>
+      </c>
+      <c r="F216" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="G216" s="46" t="s">
+        <v>953</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{A36F69E6-5AC8-443F-8567-4E3FB7E927F1}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12239,10 +12445,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView topLeftCell="D171" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183:G186"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16356,8 +16562,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="21" t="s">
-        <v>91</v>
+      <c r="A181" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B181" s="21">
         <v>400</v>
@@ -16379,8 +16585,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="21" t="s">
-        <v>91</v>
+      <c r="A182" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B182" s="21">
         <v>400</v>
@@ -16402,8 +16608,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="21" t="s">
-        <v>91</v>
+      <c r="A183" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B183" s="21">
         <v>400</v>
@@ -16425,8 +16631,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="21" t="s">
-        <v>91</v>
+      <c r="A184" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B184" s="21">
         <v>400</v>
@@ -16448,8 +16654,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="21" t="s">
-        <v>91</v>
+      <c r="A185" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B185" s="21">
         <v>400</v>
@@ -16471,8 +16677,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="21" t="s">
-        <v>91</v>
+      <c r="A186" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B186" s="21">
         <v>400</v>
@@ -16491,6 +16697,29 @@
       </c>
       <c r="G186" t="s">
         <v>945</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="21">
+        <v>400</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E187" s="17">
+        <v>160366</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="G187" s="46" t="s">
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -18935,6 +19164,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -18945,15 +19183,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19203,6 +19432,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19216,14 +19453,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CC7E9-C00C-4BA8-8E4B-ABBBEC3A62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0EEB95-4D90-400C-842B-94B44D0E0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="13905" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13920" activeTab="5" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="971">
   <si>
     <t>API</t>
   </si>
@@ -2946,12 +2946,51 @@
   <si>
     <t>imb.status</t>
   </si>
+  <si>
+    <t>6X4LABEL is not currently supported</t>
+  </si>
+  <si>
+    <t>imageInfo.imageType, imageInfo.labelType, imageInfo.receiptOption</t>
+  </si>
+  <si>
+    <t>Label Broker Service is unavailable. For any questions, please reach out to us at https://emailus.usps.com/s/web-tools-inquiry</t>
+  </si>
+  <si>
+    <t>PAYER role required</t>
+  </si>
+  <si>
+    <t>&lt;labelType&gt; currently does not support imageInfo.imageType of 'ZPL203DPI' or 'ZPL300DPI' with imageInfo.receiptOption of 'SEPARATE_PAGE'</t>
+  </si>
+  <si>
+    <t>ESC 915 or 917 may not be used for articles sent to or from &lt;location&gt;</t>
+  </si>
+  <si>
+    <t>impbContainerType, containerMailClass</t>
+  </si>
+  <si>
+    <t>impbContainerType, imcbContainerType</t>
+  </si>
+  <si>
+    <t>OPEN_DISTRIBUTE_PALLET container type is only supported for PRIORITY_MAIL mail class</t>
+  </si>
+  <si>
+    <t>must be less than or equal to 70.0</t>
+  </si>
+  <si>
+    <t>Containers with containerMailClass PRIORITY_MAIL and imcbContainerType/impbContainerType SACK cannot contain HAZMAT packages</t>
+  </si>
+  <si>
+    <t>160372</t>
+  </si>
+  <si>
+    <t>LABEL_PROVIDER only supports the accountType of EPS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3034,6 +3073,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3057,9 +3110,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3191,13 +3245,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3915,10 +3972,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4322,6 +4379,29 @@
         <v>688</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4332,10 +4412,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,7 +4514,7 @@
       <c r="E4" s="17">
         <v>160321</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
       <c r="G4" t="s">
@@ -4457,7 +4537,7 @@
       <c r="E5" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="24" t="s">
         <v>830</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -4480,7 +4560,7 @@
       <c r="E6" s="17">
         <v>160344</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="17" t="s">
         <v>939</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -4503,7 +4583,7 @@
       <c r="E7" s="17">
         <v>160345</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>939</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4526,7 +4606,7 @@
       <c r="E8" s="17">
         <v>160350</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="17" t="s">
         <v>938</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4549,7 +4629,7 @@
       <c r="E9" s="17">
         <v>160352</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="17" t="s">
         <v>938</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4572,7 +4652,7 @@
       <c r="E10" s="17">
         <v>160353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="17" t="s">
         <v>938</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4595,7 +4675,7 @@
       <c r="E11" s="17">
         <v>160354</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="17" t="s">
         <v>938</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -4618,11 +4698,80 @@
       <c r="E12" s="17">
         <v>160355</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="17" t="s">
         <v>938</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B13" s="10">
+        <v>400</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E13" s="17">
+        <v>160371</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B14" s="10">
+        <v>400</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14" s="17">
+        <v>160373</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B15" s="10">
+        <v>400</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="E15" s="17">
+        <v>160374</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -7456,11 +7605,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12304,7 +12453,7 @@
       <c r="C211" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D211" s="45" t="s">
+      <c r="D211" t="s">
         <v>946</v>
       </c>
       <c r="E211" s="17">
@@ -12327,7 +12476,7 @@
       <c r="C212" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D212" s="45" t="s">
+      <c r="D212" t="s">
         <v>946</v>
       </c>
       <c r="E212" s="17">
@@ -12350,7 +12499,7 @@
       <c r="C213" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D213" s="45" t="s">
+      <c r="D213" t="s">
         <v>946</v>
       </c>
       <c r="E213" s="17">
@@ -12373,7 +12522,7 @@
       <c r="C214" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D214" s="45" t="s">
+      <c r="D214" t="s">
         <v>946</v>
       </c>
       <c r="E214" s="17">
@@ -12396,7 +12545,7 @@
       <c r="C215" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D215" s="45" t="s">
+      <c r="D215" t="s">
         <v>946</v>
       </c>
       <c r="E215" s="17">
@@ -12428,8 +12577,123 @@
       <c r="F216" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="G216" s="46" t="s">
+      <c r="G216" s="45" t="s">
         <v>953</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217" s="20">
+        <v>400</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E217" s="17">
+        <v>160367</v>
+      </c>
+      <c r="F217" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" s="20">
+        <v>400</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E218" s="17">
+        <v>160368</v>
+      </c>
+      <c r="F218" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B219" s="20">
+        <v>400</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E219" s="17">
+        <v>160369</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" s="21">
+        <v>400</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E220" s="24">
+        <v>160370</v>
+      </c>
+      <c r="F220" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" s="20">
+        <v>400</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E221" s="17">
+        <v>160375</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -12445,10 +12709,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16718,8 +16982,77 @@
       <c r="F187" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="G187" s="46" t="s">
+      <c r="G187" s="45" t="s">
         <v>953</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="21">
+        <v>400</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E188" s="17">
+        <v>160367</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="21">
+        <v>400</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E189" s="24">
+        <v>160368</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="21">
+        <v>400</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E190" s="24">
+        <v>160370</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -19164,28 +19497,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD1EFD7F07544F4C8A5DF6ACE5557D0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a46465e297c47d8b88a71685f887e65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9" xmlns:ns3="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4503a5f252426d71f93d44927b16e869" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19431,10 +19742,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19458,21 +19803,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11AB0D6-FBA0-4F11-8778-05A9ADBB93A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B395BD-3861-450F-BD2A-C5F494A06DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F448109-556B-48A9-BBCE-95366CD8D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13920" firstSheet="4" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="13785" firstSheet="3" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1007">
   <si>
     <t>API</t>
   </si>
@@ -3069,12 +3069,56 @@
   <si>
     <t>Mismatch between requested tracking numbers and found labels. Requested &lt;requestedNumberOfTrackingNumbers&gt;, found: &lt;acutalNumberOfTrackingNumbers&gt;</t>
   </si>
+  <si>
+    <t>&lt;role&gt; requires accountType of PERMIT, METER, OMAS, or EPS</t>
+  </si>
+  <si>
+    <r>
+      <t>MID is not a valid account type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0A3069"/>
+        <rFont val="Ui-Monospace"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for Outbound Mail Classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Ui-Monospace"/>
+        <charset val="1"/>
+      </rPr>
+      <t>; accountType EPS, PERMIT, or METER is required.</t>
+    </r>
+  </si>
+  <si>
+    <t>indiciaDescription.imitype</t>
+  </si>
+  <si>
+    <t>Cannot use chargebackCode when no OMAS payer role is present</t>
+  </si>
+  <si>
+    <t>packageDescription.packageOptions.omas.chargebackCode</t>
+  </si>
+  <si>
+    <t>https://apis.usps.com/labels/v3/indicia/imb/</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>at least 1 item is required when requesting duties, taxes, and fees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3171,6 +3215,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0A3069"/>
+      <name val="Ui-Monospace"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Ui-Monospace"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3199,7 +3255,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3336,6 +3392,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -3658,7 +3715,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3666,7 +3723,7 @@
     <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3706,7 +3763,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
@@ -3718,7 +3775,7 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3787,7 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +3799,7 @@
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3754,7 +3811,7 @@
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +3823,7 @@
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3835,7 @@
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
@@ -3808,7 +3865,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -3819,7 +3876,7 @@
     <col min="7" max="7" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>524</v>
       </c>
@@ -3863,7 +3920,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="10" t="s">
         <v>524</v>
       </c>
@@ -3886,7 +3943,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="10" t="s">
         <v>524</v>
       </c>
@@ -3909,7 +3966,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="10" t="s">
         <v>524</v>
       </c>
@@ -3932,7 +3989,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>524</v>
       </c>
@@ -3955,7 +4012,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7" s="10" t="s">
         <v>524</v>
       </c>
@@ -3978,7 +4035,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8" s="10" t="s">
         <v>524</v>
       </c>
@@ -4001,7 +4058,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>524</v>
       </c>
@@ -4024,7 +4081,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>524</v>
       </c>
@@ -4057,13 +4114,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -4073,7 +4130,7 @@
     <col min="7" max="7" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -4119,7 +4176,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>543</v>
       </c>
@@ -4142,7 +4199,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>543</v>
       </c>
@@ -4165,7 +4222,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>543</v>
       </c>
@@ -4188,7 +4245,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -4211,7 +4268,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>543</v>
       </c>
@@ -4234,7 +4291,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>543</v>
       </c>
@@ -4257,7 +4314,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>543</v>
       </c>
@@ -4280,7 +4337,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>543</v>
       </c>
@@ -4303,7 +4360,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -4326,7 +4383,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -4349,7 +4406,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>543</v>
       </c>
@@ -4372,7 +4429,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -4395,7 +4452,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>543</v>
       </c>
@@ -4418,7 +4475,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -4441,7 +4498,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
         <v>543</v>
       </c>
@@ -4464,7 +4521,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -4487,7 +4544,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>543</v>
       </c>
@@ -4510,7 +4567,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>543</v>
       </c>
@@ -4533,7 +4590,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>543</v>
       </c>
@@ -4556,7 +4613,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>543</v>
       </c>
@@ -4579,7 +4636,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>543</v>
       </c>
@@ -4602,7 +4659,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>543</v>
       </c>
@@ -4625,7 +4682,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -4646,6 +4703,29 @@
       </c>
       <c r="G25" t="s">
         <v>952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>953</v>
+      </c>
+      <c r="E26" s="24">
+        <v>160390</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -4664,7 +4744,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -4675,7 +4755,7 @@
     <col min="7" max="7" width="126" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4698,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>882</v>
       </c>
@@ -4721,7 +4801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>882</v>
       </c>
@@ -4744,7 +4824,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>882</v>
       </c>
@@ -4767,7 +4847,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="10" t="s">
         <v>882</v>
       </c>
@@ -4790,7 +4870,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>882</v>
       </c>
@@ -4813,7 +4893,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>882</v>
       </c>
@@ -4836,7 +4916,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>882</v>
       </c>
@@ -4859,7 +4939,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>882</v>
       </c>
@@ -4882,7 +4962,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>882</v>
       </c>
@@ -4905,7 +4985,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>882</v>
       </c>
@@ -4928,7 +5008,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>882</v>
       </c>
@@ -4951,7 +5031,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>882</v>
       </c>
@@ -4974,7 +5054,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>882</v>
       </c>
@@ -4997,7 +5077,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="10" t="s">
         <v>882</v>
       </c>
@@ -5020,7 +5100,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="10" t="s">
         <v>882</v>
       </c>
@@ -5043,7 +5123,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="10" t="s">
         <v>882</v>
       </c>
@@ -5066,7 +5146,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="10" t="s">
         <v>882</v>
       </c>
@@ -5105,7 +5185,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5116,7 +5196,7 @@
     <col min="7" max="7" width="136.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -5162,7 +5242,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>572</v>
       </c>
@@ -5183,7 +5263,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -5206,7 +5286,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>572</v>
       </c>
@@ -5229,7 +5309,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>572</v>
       </c>
@@ -5252,7 +5332,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>572</v>
       </c>
@@ -5275,7 +5355,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>572</v>
       </c>
@@ -5298,7 +5378,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>572</v>
       </c>
@@ -5321,7 +5401,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>572</v>
       </c>
@@ -5344,7 +5424,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>572</v>
       </c>
@@ -5367,7 +5447,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>572</v>
       </c>
@@ -5390,7 +5470,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>572</v>
       </c>
@@ -5413,7 +5493,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>572</v>
       </c>
@@ -5436,7 +5516,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>572</v>
       </c>
@@ -5459,7 +5539,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="10" t="s">
         <v>572</v>
       </c>
@@ -5498,7 +5578,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -5509,7 +5589,7 @@
     <col min="7" max="7" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5612,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A2" s="10" t="s">
         <v>604</v>
       </c>
@@ -5555,7 +5635,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A3" s="10" t="s">
         <v>604</v>
       </c>
@@ -5578,7 +5658,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="10" t="s">
         <v>604</v>
       </c>
@@ -5611,13 +5691,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5628,7 +5708,7 @@
     <col min="7" max="7" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5651,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>609</v>
       </c>
@@ -5672,7 +5752,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>609</v>
       </c>
@@ -5693,7 +5773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>609</v>
       </c>
@@ -5714,7 +5794,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>609</v>
       </c>
@@ -5735,7 +5815,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>609</v>
       </c>
@@ -5756,7 +5836,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>609</v>
       </c>
@@ -5777,7 +5857,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="10" t="s">
         <v>609</v>
       </c>
@@ -5798,7 +5878,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>609</v>
       </c>
@@ -5819,7 +5899,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>609</v>
       </c>
@@ -5840,7 +5920,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>609</v>
       </c>
@@ -5861,7 +5941,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>609</v>
       </c>
@@ -5882,7 +5962,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>609</v>
       </c>
@@ -5903,7 +5983,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>609</v>
       </c>
@@ -5924,7 +6004,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>609</v>
       </c>
@@ -5945,7 +6025,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
         <v>609</v>
       </c>
@@ -5966,7 +6046,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>609</v>
       </c>
@@ -5987,7 +6067,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>609</v>
       </c>
@@ -6008,7 +6088,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>609</v>
       </c>
@@ -6029,7 +6109,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>609</v>
       </c>
@@ -6050,7 +6130,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>609</v>
       </c>
@@ -6071,7 +6151,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>609</v>
       </c>
@@ -6092,7 +6172,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>609</v>
       </c>
@@ -6113,7 +6193,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>609</v>
       </c>
@@ -6134,7 +6214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>609</v>
       </c>
@@ -6155,7 +6235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>609</v>
       </c>
@@ -6176,7 +6256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>609</v>
       </c>
@@ -6197,7 +6277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>609</v>
       </c>
@@ -6218,7 +6298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="10" t="s">
         <v>609</v>
       </c>
@@ -6239,7 +6319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>609</v>
       </c>
@@ -6262,7 +6342,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>609</v>
       </c>
@@ -6285,7 +6365,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
         <v>609</v>
       </c>
@@ -6308,7 +6388,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="10" t="s">
         <v>609</v>
       </c>
@@ -6331,7 +6411,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>609</v>
       </c>
@@ -6354,7 +6434,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>609</v>
       </c>
@@ -6377,7 +6457,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>609</v>
       </c>
@@ -6400,7 +6480,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>609</v>
       </c>
@@ -6423,7 +6503,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="10" t="s">
         <v>609</v>
       </c>
@@ -6446,7 +6526,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>609</v>
       </c>
@@ -6467,6 +6547,52 @@
       </c>
       <c r="G39" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" s="31">
+        <v>400</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>981</v>
+      </c>
+      <c r="E40" s="17">
+        <v>160391</v>
+      </c>
+      <c r="F40" t="s">
+        <v>710</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B41" s="31">
+        <v>400</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>981</v>
+      </c>
+      <c r="E41" s="24">
+        <v>160392</v>
+      </c>
+      <c r="F41" t="s">
+        <v>710</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -6486,7 +6612,7 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -6497,7 +6623,7 @@
     <col min="7" max="7" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6520,7 +6646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="45">
       <c r="A2" s="10" t="s">
         <v>630</v>
       </c>
@@ -6541,7 +6667,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A3" s="10" t="s">
         <v>630</v>
       </c>
@@ -6562,7 +6688,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A4" s="10" t="s">
         <v>630</v>
       </c>
@@ -6583,7 +6709,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>630</v>
       </c>
@@ -6604,7 +6730,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="45">
       <c r="A6" s="10" t="s">
         <v>630</v>
       </c>
@@ -6625,7 +6751,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="10" t="s">
         <v>630</v>
       </c>
@@ -6646,7 +6772,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>630</v>
       </c>
@@ -6667,7 +6793,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>630</v>
       </c>
@@ -6688,7 +6814,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="10" t="s">
         <v>630</v>
       </c>
@@ -6709,7 +6835,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="10" t="s">
         <v>630</v>
       </c>
@@ -6730,7 +6856,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="10" t="s">
         <v>630</v>
       </c>
@@ -6751,7 +6877,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="10" t="s">
         <v>630</v>
       </c>
@@ -6772,7 +6898,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14" s="10" t="s">
         <v>630</v>
       </c>
@@ -6811,7 +6937,7 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -6823,7 +6949,7 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="75">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -6869,7 +6995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -6892,7 +7018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -6915,7 +7041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -6938,7 +7064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="75">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -6961,7 +7087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -6984,14 +7110,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6999,19 +7125,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -7037,7 +7163,7 @@
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -7048,7 +7174,7 @@
     <col min="7" max="7" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7071,7 +7197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -7092,7 +7218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7113,7 +7239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7134,7 +7260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -7155,7 +7281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7197,7 +7323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -7218,7 +7344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -7239,7 +7365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -7260,7 +7386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7302,7 +7428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -7323,7 +7449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7344,7 +7470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -7365,7 +7491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -7386,7 +7512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -7407,7 +7533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -7428,7 +7554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -7449,7 +7575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -7470,7 +7596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -7491,7 +7617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +7657,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -7542,7 +7668,7 @@
     <col min="7" max="7" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7565,7 +7691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
@@ -7588,7 +7714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
@@ -7611,7 +7737,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -7634,7 +7760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -7657,7 +7783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -7680,7 +7806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -7703,7 +7829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -7726,7 +7852,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -7749,7 +7875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -7772,7 +7898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -7795,7 +7921,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
@@ -7818,7 +7944,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
@@ -7841,7 +7967,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
@@ -7864,7 +7990,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -7887,7 +8013,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -7920,14 +8046,14 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F225" sqref="F225"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -7938,7 +8064,7 @@
     <col min="7" max="7" width="115.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7961,7 +8087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
@@ -7984,7 +8110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
@@ -8007,7 +8133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>87</v>
       </c>
@@ -8030,7 +8156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>87</v>
       </c>
@@ -8053,7 +8179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>87</v>
       </c>
@@ -8076,7 +8202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>87</v>
       </c>
@@ -8099,7 +8225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
@@ -8122,7 +8248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
@@ -8145,7 +8271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
@@ -8168,7 +8294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>87</v>
       </c>
@@ -8191,7 +8317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
@@ -8214,7 +8340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
@@ -8237,7 +8363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
@@ -8260,7 +8386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>87</v>
       </c>
@@ -8283,7 +8409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
         <v>87</v>
       </c>
@@ -8306,7 +8432,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>87</v>
       </c>
@@ -8329,7 +8455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>87</v>
       </c>
@@ -8352,7 +8478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
@@ -8375,7 +8501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
@@ -8398,7 +8524,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
@@ -8421,7 +8547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
@@ -8444,7 +8570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
@@ -8467,7 +8593,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="10" t="s">
         <v>87</v>
       </c>
@@ -8490,7 +8616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25" s="10" t="s">
         <v>87</v>
       </c>
@@ -8513,7 +8639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>87</v>
       </c>
@@ -8536,7 +8662,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>87</v>
       </c>
@@ -8559,7 +8685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
@@ -8582,7 +8708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="21" t="s">
         <v>87</v>
       </c>
@@ -8605,7 +8731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="21" t="s">
         <v>87</v>
       </c>
@@ -8628,7 +8754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="21" t="s">
         <v>87</v>
       </c>
@@ -8651,7 +8777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="21" t="s">
         <v>87</v>
       </c>
@@ -8674,7 +8800,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="20" t="s">
         <v>87</v>
       </c>
@@ -8697,7 +8823,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="20" t="s">
         <v>87</v>
       </c>
@@ -8720,7 +8846,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="20" t="s">
         <v>87</v>
       </c>
@@ -8743,7 +8869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="20" t="s">
         <v>87</v>
       </c>
@@ -8766,7 +8892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45">
       <c r="A37" s="20" t="s">
         <v>87</v>
       </c>
@@ -8789,7 +8915,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="20" t="s">
         <v>87</v>
       </c>
@@ -8812,7 +8938,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="20" t="s">
         <v>87</v>
       </c>
@@ -8835,7 +8961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="20" t="s">
         <v>87</v>
       </c>
@@ -8858,7 +8984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="20" t="s">
         <v>87</v>
       </c>
@@ -8881,7 +9007,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="20" t="s">
         <v>87</v>
       </c>
@@ -8904,7 +9030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="20" t="s">
         <v>87</v>
       </c>
@@ -8927,7 +9053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="20" t="s">
         <v>87</v>
       </c>
@@ -8950,7 +9076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="20" t="s">
         <v>87</v>
       </c>
@@ -8973,7 +9099,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="20" t="s">
         <v>87</v>
       </c>
@@ -8996,7 +9122,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="20" t="s">
         <v>87</v>
       </c>
@@ -9019,7 +9145,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="20" t="s">
         <v>87</v>
       </c>
@@ -9042,7 +9168,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="20" t="s">
         <v>87</v>
       </c>
@@ -9065,7 +9191,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="20" t="s">
         <v>87</v>
       </c>
@@ -9088,7 +9214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="20" t="s">
         <v>87</v>
       </c>
@@ -9111,7 +9237,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -9134,7 +9260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="20" t="s">
         <v>87</v>
       </c>
@@ -9157,7 +9283,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="20" t="s">
         <v>87</v>
       </c>
@@ -9180,7 +9306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="20" t="s">
         <v>87</v>
       </c>
@@ -9203,7 +9329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="20" t="s">
         <v>87</v>
       </c>
@@ -9226,7 +9352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="20" t="s">
         <v>87</v>
       </c>
@@ -9249,7 +9375,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="20" t="s">
         <v>87</v>
       </c>
@@ -9272,7 +9398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="20" t="s">
         <v>87</v>
       </c>
@@ -9295,7 +9421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="20" t="s">
         <v>87</v>
       </c>
@@ -9318,7 +9444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="20" t="s">
         <v>87</v>
       </c>
@@ -9341,7 +9467,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="20" t="s">
         <v>87</v>
       </c>
@@ -9364,7 +9490,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="20" t="s">
         <v>87</v>
       </c>
@@ -9387,7 +9513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="20" t="s">
         <v>87</v>
       </c>
@@ -9410,7 +9536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="20" t="s">
         <v>87</v>
       </c>
@@ -9433,7 +9559,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66" s="20" t="s">
         <v>87</v>
       </c>
@@ -9456,7 +9582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="20" t="s">
         <v>87</v>
       </c>
@@ -9479,7 +9605,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="20" t="s">
         <v>87</v>
       </c>
@@ -9502,7 +9628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="20" t="s">
         <v>87</v>
       </c>
@@ -9525,7 +9651,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="20" t="s">
         <v>87</v>
       </c>
@@ -9548,7 +9674,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="20" t="s">
         <v>87</v>
       </c>
@@ -9571,7 +9697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" s="20" t="s">
         <v>87</v>
       </c>
@@ -9594,7 +9720,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="20" t="s">
         <v>87</v>
       </c>
@@ -9617,7 +9743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="20" t="s">
         <v>87</v>
       </c>
@@ -9640,7 +9766,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="20" t="s">
         <v>87</v>
       </c>
@@ -9663,7 +9789,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="20" t="s">
         <v>87</v>
       </c>
@@ -9686,7 +9812,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30">
       <c r="A77" s="20" t="s">
         <v>87</v>
       </c>
@@ -9709,7 +9835,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="20" t="s">
         <v>87</v>
       </c>
@@ -9732,7 +9858,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="20" t="s">
         <v>87</v>
       </c>
@@ -9755,7 +9881,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" s="20" t="s">
         <v>87</v>
       </c>
@@ -9778,7 +9904,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30">
       <c r="A81" s="20" t="s">
         <v>87</v>
       </c>
@@ -9801,7 +9927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="20" t="s">
         <v>87</v>
       </c>
@@ -9824,7 +9950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30">
       <c r="A83" s="20" t="s">
         <v>87</v>
       </c>
@@ -9847,7 +9973,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30">
       <c r="A84" s="20" t="s">
         <v>87</v>
       </c>
@@ -9870,7 +9996,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30">
       <c r="A85" s="20" t="s">
         <v>87</v>
       </c>
@@ -9893,7 +10019,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30">
       <c r="A86" s="20" t="s">
         <v>87</v>
       </c>
@@ -9916,7 +10042,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="20" t="s">
         <v>87</v>
       </c>
@@ -9939,7 +10065,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30">
       <c r="A88" s="20" t="s">
         <v>87</v>
       </c>
@@ -9962,7 +10088,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="20" t="s">
         <v>87</v>
       </c>
@@ -9985,7 +10111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="20" t="s">
         <v>87</v>
       </c>
@@ -10008,7 +10134,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="20" t="s">
         <v>87</v>
       </c>
@@ -10031,7 +10157,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="20" t="s">
         <v>87</v>
       </c>
@@ -10054,7 +10180,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="20" t="s">
         <v>87</v>
       </c>
@@ -10077,7 +10203,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30">
       <c r="A94" s="20" t="s">
         <v>87</v>
       </c>
@@ -10100,7 +10226,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30">
       <c r="A95" s="20" t="s">
         <v>87</v>
       </c>
@@ -10123,7 +10249,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="20" t="s">
         <v>87</v>
       </c>
@@ -10146,7 +10272,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="20" t="s">
         <v>87</v>
       </c>
@@ -10169,7 +10295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="75">
       <c r="A98" s="20" t="s">
         <v>87</v>
       </c>
@@ -10192,7 +10318,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="75">
       <c r="A99" s="20" t="s">
         <v>87</v>
       </c>
@@ -10215,7 +10341,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="20" t="s">
         <v>87</v>
       </c>
@@ -10238,7 +10364,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="20" t="s">
         <v>87</v>
       </c>
@@ -10261,7 +10387,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30">
       <c r="A102" s="20" t="s">
         <v>87</v>
       </c>
@@ -10284,7 +10410,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="20" t="s">
         <v>87</v>
       </c>
@@ -10307,7 +10433,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="20" t="s">
         <v>87</v>
       </c>
@@ -10330,7 +10456,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="20" t="s">
         <v>87</v>
       </c>
@@ -10353,7 +10479,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="20" t="s">
         <v>87</v>
       </c>
@@ -10376,7 +10502,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="20" t="s">
         <v>87</v>
       </c>
@@ -10399,7 +10525,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="20" t="s">
         <v>87</v>
       </c>
@@ -10422,7 +10548,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="20" t="s">
         <v>87</v>
       </c>
@@ -10445,7 +10571,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="20" t="s">
         <v>87</v>
       </c>
@@ -10468,7 +10594,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="20" t="s">
         <v>87</v>
       </c>
@@ -10491,7 +10617,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="20" t="s">
         <v>87</v>
       </c>
@@ -10514,7 +10640,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="20" t="s">
         <v>87</v>
       </c>
@@ -10537,7 +10663,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="20" t="s">
         <v>87</v>
       </c>
@@ -10560,7 +10686,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="20" t="s">
         <v>87</v>
       </c>
@@ -10583,7 +10709,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="20" t="s">
         <v>87</v>
       </c>
@@ -10606,7 +10732,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="20" t="s">
         <v>87</v>
       </c>
@@ -10629,7 +10755,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="20" t="s">
         <v>87</v>
       </c>
@@ -10652,7 +10778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="20" t="s">
         <v>87</v>
       </c>
@@ -10675,7 +10801,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="20" t="s">
         <v>87</v>
       </c>
@@ -10698,7 +10824,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="20" t="s">
         <v>87</v>
       </c>
@@ -10721,7 +10847,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30">
       <c r="A122" s="20" t="s">
         <v>87</v>
       </c>
@@ -10744,7 +10870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="20" t="s">
         <v>87</v>
       </c>
@@ -10767,7 +10893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="20" t="s">
         <v>87</v>
       </c>
@@ -10790,7 +10916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="20" t="s">
         <v>87</v>
       </c>
@@ -10813,7 +10939,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="20" t="s">
         <v>87</v>
       </c>
@@ -10836,7 +10962,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="20" t="s">
         <v>87</v>
       </c>
@@ -10859,7 +10985,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="20" t="s">
         <v>87</v>
       </c>
@@ -10882,7 +11008,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="21" t="s">
         <v>87</v>
       </c>
@@ -10905,7 +11031,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="20" t="s">
         <v>87</v>
       </c>
@@ -10928,7 +11054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="20" t="s">
         <v>87</v>
       </c>
@@ -10951,7 +11077,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="20" t="s">
         <v>87</v>
       </c>
@@ -10974,7 +11100,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="20" t="s">
         <v>87</v>
       </c>
@@ -10997,7 +11123,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30">
       <c r="A134" s="21" t="s">
         <v>87</v>
       </c>
@@ -11020,7 +11146,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="20" t="s">
         <v>87</v>
       </c>
@@ -11043,7 +11169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="20" t="s">
         <v>87</v>
       </c>
@@ -11066,7 +11192,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="20" t="s">
         <v>87</v>
       </c>
@@ -11089,7 +11215,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="45">
       <c r="A138" s="20" t="s">
         <v>87</v>
       </c>
@@ -11112,7 +11238,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="20" t="s">
         <v>87</v>
       </c>
@@ -11135,7 +11261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="45">
       <c r="A140" s="20" t="s">
         <v>87</v>
       </c>
@@ -11158,7 +11284,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="20" t="s">
         <v>87</v>
       </c>
@@ -11181,7 +11307,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="30">
       <c r="A142" s="20" t="s">
         <v>87</v>
       </c>
@@ -11204,7 +11330,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="20" t="s">
         <v>87</v>
       </c>
@@ -11227,7 +11353,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="20" t="s">
         <v>87</v>
       </c>
@@ -11250,7 +11376,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="20" t="s">
         <v>87</v>
       </c>
@@ -11273,7 +11399,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="20" t="s">
         <v>87</v>
       </c>
@@ -11296,7 +11422,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="20" t="s">
         <v>87</v>
       </c>
@@ -11319,7 +11445,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="20" t="s">
         <v>87</v>
       </c>
@@ -11342,7 +11468,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="20" t="s">
         <v>87</v>
       </c>
@@ -11365,7 +11491,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="20" t="s">
         <v>87</v>
       </c>
@@ -11388,7 +11514,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="21" t="s">
         <v>87</v>
       </c>
@@ -11411,7 +11537,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="21" t="s">
         <v>87</v>
       </c>
@@ -11434,7 +11560,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="30">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -11449,7 +11575,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30">
       <c r="A154" s="21" t="s">
         <v>87</v>
       </c>
@@ -11472,7 +11598,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="21" t="s">
         <v>87</v>
       </c>
@@ -11495,7 +11621,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="21" t="s">
         <v>87</v>
       </c>
@@ -11518,7 +11644,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="21" t="s">
         <v>87</v>
       </c>
@@ -11541,7 +11667,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30">
       <c r="A158" s="21" t="s">
         <v>87</v>
       </c>
@@ -11564,7 +11690,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="45">
       <c r="A159" s="21" t="s">
         <v>87</v>
       </c>
@@ -11587,7 +11713,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="30">
       <c r="A160" s="21" t="s">
         <v>87</v>
       </c>
@@ -11610,7 +11736,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="20" t="s">
         <v>87</v>
       </c>
@@ -11633,7 +11759,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="20" t="s">
         <v>87</v>
       </c>
@@ -11656,7 +11782,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="20" t="s">
         <v>87</v>
       </c>
@@ -11679,7 +11805,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="20" t="s">
         <v>87</v>
       </c>
@@ -11702,7 +11828,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="20" t="s">
         <v>87</v>
       </c>
@@ -11725,7 +11851,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="20" t="s">
         <v>87</v>
       </c>
@@ -11748,7 +11874,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="20" t="s">
         <v>87</v>
       </c>
@@ -11771,7 +11897,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="20" t="s">
         <v>87</v>
       </c>
@@ -11794,7 +11920,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="20" t="s">
         <v>87</v>
       </c>
@@ -11817,7 +11943,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="45">
       <c r="A170" s="20" t="s">
         <v>87</v>
       </c>
@@ -11840,7 +11966,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="20" t="s">
         <v>87</v>
       </c>
@@ -11863,7 +11989,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="20" t="s">
         <v>87</v>
       </c>
@@ -11886,7 +12012,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="20" t="s">
         <v>87</v>
       </c>
@@ -11909,7 +12035,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="20" t="s">
         <v>87</v>
       </c>
@@ -11932,7 +12058,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="20" t="s">
         <v>87</v>
       </c>
@@ -11955,7 +12081,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="20" t="s">
         <v>87</v>
       </c>
@@ -11978,7 +12104,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="20" t="s">
         <v>87</v>
       </c>
@@ -12001,7 +12127,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="20" t="s">
         <v>87</v>
       </c>
@@ -12024,7 +12150,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="20" t="s">
         <v>87</v>
       </c>
@@ -12047,7 +12173,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="20" t="s">
         <v>87</v>
       </c>
@@ -12070,7 +12196,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="20" t="s">
         <v>87</v>
       </c>
@@ -12093,7 +12219,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="20" t="s">
         <v>87</v>
       </c>
@@ -12116,7 +12242,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="20" t="s">
         <v>87</v>
       </c>
@@ -12139,7 +12265,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30">
       <c r="A184" s="20" t="s">
         <v>87</v>
       </c>
@@ -12162,7 +12288,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="20" t="s">
         <v>87</v>
       </c>
@@ -12185,7 +12311,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="20" t="s">
         <v>87</v>
       </c>
@@ -12208,7 +12334,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="20" t="s">
         <v>87</v>
       </c>
@@ -12231,7 +12357,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="20" t="s">
         <v>87</v>
       </c>
@@ -12254,7 +12380,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="20" t="s">
         <v>87</v>
       </c>
@@ -12277,7 +12403,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="20" t="s">
         <v>87</v>
       </c>
@@ -12300,7 +12426,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="20" t="s">
         <v>87</v>
       </c>
@@ -12323,7 +12449,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="20" t="s">
         <v>87</v>
       </c>
@@ -12344,7 +12470,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="20" t="s">
         <v>87</v>
       </c>
@@ -12367,7 +12493,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="20" t="s">
         <v>87</v>
       </c>
@@ -12390,7 +12516,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="21" t="s">
         <v>87</v>
       </c>
@@ -12413,7 +12539,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="30">
       <c r="A196" s="21" t="s">
         <v>87</v>
       </c>
@@ -12436,7 +12562,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="21" t="s">
         <v>87</v>
       </c>
@@ -12459,7 +12585,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="21" t="s">
         <v>87</v>
       </c>
@@ -12482,7 +12608,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="21" t="s">
         <v>87</v>
       </c>
@@ -12505,7 +12631,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="21" t="s">
         <v>87</v>
       </c>
@@ -12528,7 +12654,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30">
       <c r="A201" s="21" t="s">
         <v>87</v>
       </c>
@@ -12551,7 +12677,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="20" t="s">
         <v>87</v>
       </c>
@@ -12574,7 +12700,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="20" t="s">
         <v>87</v>
       </c>
@@ -12597,7 +12723,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="20" t="s">
         <v>87</v>
       </c>
@@ -12620,7 +12746,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="20" t="s">
         <v>87</v>
       </c>
@@ -12643,7 +12769,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="20" t="s">
         <v>87</v>
       </c>
@@ -12666,7 +12792,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="20" t="s">
         <v>87</v>
       </c>
@@ -12689,7 +12815,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="20" t="s">
         <v>87</v>
       </c>
@@ -12712,7 +12838,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="20" t="s">
         <v>87</v>
       </c>
@@ -12735,7 +12861,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="30">
       <c r="A210" s="20" t="s">
         <v>87</v>
       </c>
@@ -12758,7 +12884,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="20" t="s">
         <v>87</v>
       </c>
@@ -12781,7 +12907,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="20" t="s">
         <v>87</v>
       </c>
@@ -12804,7 +12930,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="20" t="s">
         <v>87</v>
       </c>
@@ -12827,7 +12953,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="20" t="s">
         <v>87</v>
       </c>
@@ -12850,7 +12976,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="20" t="s">
         <v>87</v>
       </c>
@@ -12873,7 +12999,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="20" t="s">
         <v>87</v>
       </c>
@@ -12896,7 +13022,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="20" t="s">
         <v>87</v>
       </c>
@@ -12919,7 +13045,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="20" t="s">
         <v>87</v>
       </c>
@@ -12942,7 +13068,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="20" t="s">
         <v>87</v>
       </c>
@@ -12965,7 +13091,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="10" customFormat="1" ht="45">
       <c r="A220" s="21" t="s">
         <v>87</v>
       </c>
@@ -12988,7 +13114,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="20" t="s">
         <v>87</v>
       </c>
@@ -13011,7 +13137,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="20" t="s">
         <v>87</v>
       </c>
@@ -13034,7 +13160,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="20" t="s">
         <v>87</v>
       </c>
@@ -13057,7 +13183,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="20" t="s">
         <v>87</v>
       </c>
@@ -13080,7 +13206,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="20" t="s">
         <v>87</v>
       </c>
@@ -13103,7 +13229,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="20" t="s">
         <v>87</v>
       </c>
@@ -13126,7 +13252,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="20" t="s">
         <v>87</v>
       </c>
@@ -13149,7 +13275,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="20" t="s">
         <v>87</v>
       </c>
@@ -13172,7 +13298,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="20" t="s">
         <v>87</v>
       </c>
@@ -13195,7 +13321,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="20" t="s">
         <v>87</v>
       </c>
@@ -13216,6 +13342,52 @@
       </c>
       <c r="G230" s="47" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B231" s="20">
+        <v>400</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E231" s="17">
+        <v>160394</v>
+      </c>
+      <c r="F231" s="33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B232" s="20">
+        <v>400</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="E232" s="17">
+        <v>160395</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -13231,13 +13403,14 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -13248,7 +13421,7 @@
     <col min="7" max="7" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>369</v>
       </c>
@@ -13294,7 +13467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>369</v>
       </c>
@@ -13317,7 +13490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="10" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>369</v>
       </c>
@@ -13340,7 +13513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="75">
       <c r="A5" s="10" t="s">
         <v>369</v>
       </c>
@@ -13363,7 +13536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="45">
       <c r="A6" s="10" t="s">
         <v>369</v>
       </c>
@@ -13386,7 +13559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A7" s="10" t="s">
         <v>369</v>
       </c>
@@ -13409,7 +13582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A8" s="10" t="s">
         <v>369</v>
       </c>
@@ -13432,7 +13605,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A9" s="10" t="s">
         <v>369</v>
       </c>
@@ -13455,7 +13628,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>369</v>
       </c>
@@ -13476,7 +13649,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="10" t="s">
         <v>369</v>
       </c>
@@ -13497,7 +13670,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>369</v>
       </c>
@@ -13518,7 +13691,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>369</v>
       </c>
@@ -13539,7 +13712,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>369</v>
       </c>
@@ -13560,7 +13733,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="10" t="s">
         <v>369</v>
       </c>
@@ -13581,7 +13754,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="10" t="s">
         <v>369</v>
       </c>
@@ -13604,7 +13777,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>369</v>
       </c>
@@ -13627,7 +13800,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>369</v>
       </c>
@@ -13650,7 +13823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>369</v>
       </c>
@@ -13673,7 +13846,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="10" t="s">
         <v>369</v>
       </c>
@@ -13696,7 +13869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>369</v>
       </c>
@@ -13719,7 +13892,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>369</v>
       </c>
@@ -13742,7 +13915,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="10" t="s">
         <v>369</v>
       </c>
@@ -13765,7 +13938,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>369</v>
       </c>
@@ -13788,7 +13961,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>369</v>
       </c>
@@ -13811,7 +13984,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>369</v>
       </c>
@@ -13834,7 +14007,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>369</v>
       </c>
@@ -13857,7 +14030,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>369</v>
       </c>
@@ -13880,7 +14053,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="10" t="s">
         <v>369</v>
       </c>
@@ -13903,7 +14076,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
         <v>369</v>
       </c>
@@ -13926,7 +14099,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>369</v>
       </c>
@@ -13949,7 +14122,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
         <v>369</v>
       </c>
@@ -13972,7 +14145,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" s="10" t="s">
         <v>369</v>
       </c>
@@ -13995,7 +14168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>369</v>
       </c>
@@ -14018,7 +14191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="10" t="s">
         <v>369</v>
       </c>
@@ -14041,7 +14214,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>369</v>
       </c>
@@ -14064,7 +14237,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>369</v>
       </c>
@@ -14087,7 +14260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="10" t="s">
         <v>369</v>
       </c>
@@ -14110,7 +14283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>369</v>
       </c>
@@ -14133,7 +14306,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>369</v>
       </c>
@@ -14156,7 +14329,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="10" t="s">
         <v>369</v>
       </c>
@@ -14179,7 +14352,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="10" t="s">
         <v>369</v>
       </c>
@@ -14202,7 +14375,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="10" t="s">
         <v>369</v>
       </c>
@@ -14225,7 +14398,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="10" t="s">
         <v>369</v>
       </c>
@@ -14248,7 +14421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
         <v>369</v>
       </c>
@@ -14271,7 +14444,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="10" t="s">
         <v>369</v>
       </c>
@@ -14294,7 +14467,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
         <v>369</v>
       </c>
@@ -14317,7 +14490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
         <v>369</v>
       </c>
@@ -14340,7 +14513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="10" t="s">
         <v>369</v>
       </c>
@@ -14363,7 +14536,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -14386,7 +14559,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="10" t="s">
         <v>369</v>
       </c>
@@ -14409,7 +14582,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="10" t="s">
         <v>369</v>
       </c>
@@ -14432,7 +14605,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="10" t="s">
         <v>369</v>
       </c>
@@ -14455,7 +14628,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
         <v>369</v>
       </c>
@@ -14478,7 +14651,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="10" t="s">
         <v>369</v>
       </c>
@@ -14501,7 +14674,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="10" t="s">
         <v>369</v>
       </c>
@@ -14524,7 +14697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
         <v>369</v>
       </c>
@@ -14547,7 +14720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="10" t="s">
         <v>369</v>
       </c>
@@ -14570,7 +14743,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="10" t="s">
         <v>369</v>
       </c>
@@ -14593,7 +14766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="10" t="s">
         <v>369</v>
       </c>
@@ -14616,7 +14789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30">
       <c r="A61" s="10" t="s">
         <v>369</v>
       </c>
@@ -14639,7 +14812,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="10" t="s">
         <v>369</v>
       </c>
@@ -14662,7 +14835,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30">
       <c r="A63" s="10" t="s">
         <v>369</v>
       </c>
@@ -14685,7 +14858,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="10" t="s">
         <v>369</v>
       </c>
@@ -14708,7 +14881,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="10" t="s">
         <v>369</v>
       </c>
@@ -14731,7 +14904,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="10" t="s">
         <v>369</v>
       </c>
@@ -14754,7 +14927,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="10" t="s">
         <v>369</v>
       </c>
@@ -14777,7 +14950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="10" t="s">
         <v>369</v>
       </c>
@@ -14800,7 +14973,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="30">
       <c r="A69" s="10" t="s">
         <v>369</v>
       </c>
@@ -14823,7 +14996,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="10" t="s">
         <v>369</v>
       </c>
@@ -14846,7 +15019,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="10" t="s">
         <v>369</v>
       </c>
@@ -14869,7 +15042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" s="10" t="s">
         <v>369</v>
       </c>
@@ -14892,7 +15065,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="10" t="s">
         <v>369</v>
       </c>
@@ -14915,7 +15088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
         <v>369</v>
       </c>
@@ -14938,7 +15111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="45">
       <c r="A75" s="10" t="s">
         <v>369</v>
       </c>
@@ -14961,7 +15134,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="30">
       <c r="A76" s="10" t="s">
         <v>369</v>
       </c>
@@ -14984,7 +15157,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30">
       <c r="A77" s="10" t="s">
         <v>369</v>
       </c>
@@ -15007,7 +15180,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30">
       <c r="A78" s="10" t="s">
         <v>369</v>
       </c>
@@ -15030,7 +15203,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30">
       <c r="A79" s="10" t="s">
         <v>369</v>
       </c>
@@ -15053,7 +15226,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" s="10" t="s">
         <v>369</v>
       </c>
@@ -15076,7 +15249,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30">
       <c r="A81" s="10" t="s">
         <v>369</v>
       </c>
@@ -15099,7 +15272,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="10" t="s">
         <v>369</v>
       </c>
@@ -15122,7 +15295,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="45">
       <c r="A83" s="10" t="s">
         <v>369</v>
       </c>
@@ -15145,7 +15318,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="10" t="s">
         <v>369</v>
       </c>
@@ -15168,7 +15341,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="10" t="s">
         <v>369</v>
       </c>
@@ -15191,7 +15364,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="10" t="s">
         <v>369</v>
       </c>
@@ -15214,7 +15387,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="10" t="s">
         <v>369</v>
       </c>
@@ -15237,7 +15410,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30">
       <c r="A88" s="10" t="s">
         <v>369</v>
       </c>
@@ -15260,7 +15433,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30">
       <c r="A89" s="10" t="s">
         <v>369</v>
       </c>
@@ -15283,7 +15456,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30">
       <c r="A90" s="10" t="s">
         <v>369</v>
       </c>
@@ -15306,7 +15479,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="10" t="s">
         <v>369</v>
       </c>
@@ -15329,7 +15502,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="10" t="s">
         <v>369</v>
       </c>
@@ -15352,7 +15525,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="75">
       <c r="A93" s="10" t="s">
         <v>369</v>
       </c>
@@ -15375,7 +15548,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="75">
       <c r="A94" s="10" t="s">
         <v>369</v>
       </c>
@@ -15398,7 +15571,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="10" t="s">
         <v>369</v>
       </c>
@@ -15421,7 +15594,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="10" t="s">
         <v>369</v>
       </c>
@@ -15444,7 +15617,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="30">
       <c r="A97" s="10" t="s">
         <v>369</v>
       </c>
@@ -15467,7 +15640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="10" t="s">
         <v>369</v>
       </c>
@@ -15490,7 +15663,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="10" t="s">
         <v>369</v>
       </c>
@@ -15513,7 +15686,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="10" t="s">
         <v>369</v>
       </c>
@@ -15536,7 +15709,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="10" t="s">
         <v>369</v>
       </c>
@@ -15559,7 +15732,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="10" t="s">
         <v>369</v>
       </c>
@@ -15582,7 +15755,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="10" t="s">
         <v>369</v>
       </c>
@@ -15605,7 +15778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="10" t="s">
         <v>369</v>
       </c>
@@ -15628,7 +15801,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="10" t="s">
         <v>369</v>
       </c>
@@ -15651,7 +15824,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
         <v>369</v>
       </c>
@@ -15674,7 +15847,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="10" t="s">
         <v>369</v>
       </c>
@@ -15697,7 +15870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="10" t="s">
         <v>369</v>
       </c>
@@ -15720,7 +15893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="10" t="s">
         <v>369</v>
       </c>
@@ -15743,7 +15916,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="10" t="s">
         <v>369</v>
       </c>
@@ -15766,7 +15939,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="10" t="s">
         <v>369</v>
       </c>
@@ -15789,7 +15962,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="10" t="s">
         <v>369</v>
       </c>
@@ -15812,7 +15985,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="10" t="s">
         <v>369</v>
       </c>
@@ -15835,7 +16008,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="10" t="s">
         <v>369</v>
       </c>
@@ -15858,7 +16031,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="10" t="s">
         <v>369</v>
       </c>
@@ -15881,7 +16054,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="10" t="s">
         <v>369</v>
       </c>
@@ -15904,7 +16077,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30">
       <c r="A117" s="10" t="s">
         <v>369</v>
       </c>
@@ -15927,7 +16100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="10" t="s">
         <v>369</v>
       </c>
@@ -15950,7 +16123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="10" t="s">
         <v>369</v>
       </c>
@@ -15973,7 +16146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="10" t="s">
         <v>369</v>
       </c>
@@ -15996,7 +16169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="10" t="s">
         <v>369</v>
       </c>
@@ -16019,7 +16192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="10" t="s">
         <v>369</v>
       </c>
@@ -16042,7 +16215,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="10" t="s">
         <v>369</v>
       </c>
@@ -16065,7 +16238,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -16079,7 +16252,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -16093,7 +16266,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -16107,7 +16280,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="10" t="s">
         <v>369</v>
       </c>
@@ -16130,7 +16303,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="10" t="s">
         <v>369</v>
       </c>
@@ -16153,7 +16326,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="10" t="s">
         <v>369</v>
       </c>
@@ -16176,7 +16349,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="10" t="s">
         <v>369</v>
       </c>
@@ -16199,7 +16372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="10" t="s">
         <v>369</v>
       </c>
@@ -16222,7 +16395,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="30">
       <c r="A132" s="10" t="s">
         <v>369</v>
       </c>
@@ -16245,7 +16418,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="30">
       <c r="A133" s="10" t="s">
         <v>369</v>
       </c>
@@ -16268,7 +16441,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="10" t="s">
         <v>369</v>
       </c>
@@ -16291,7 +16464,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="10" t="s">
         <v>369</v>
       </c>
@@ -16314,7 +16487,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="10" t="s">
         <v>369</v>
       </c>
@@ -16337,7 +16510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="10" t="s">
         <v>369</v>
       </c>
@@ -16360,7 +16533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="10" t="s">
         <v>369</v>
       </c>
@@ -16383,7 +16556,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="10" t="s">
         <v>369</v>
       </c>
@@ -16406,7 +16579,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="30">
       <c r="A140" s="10" t="s">
         <v>369</v>
       </c>
@@ -16429,7 +16602,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="10" t="s">
         <v>369</v>
       </c>
@@ -16452,7 +16625,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="10" t="s">
         <v>369</v>
       </c>
@@ -16475,7 +16648,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="10" t="s">
         <v>369</v>
       </c>
@@ -16498,7 +16671,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="45">
       <c r="A144" s="10" t="s">
         <v>369</v>
       </c>
@@ -16521,7 +16694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="10" t="s">
         <v>369</v>
       </c>
@@ -16544,7 +16717,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="45">
       <c r="A146" s="10" t="s">
         <v>369</v>
       </c>
@@ -16567,7 +16740,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="10" t="s">
         <v>369</v>
       </c>
@@ -16590,7 +16763,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="30">
       <c r="A148" s="10" t="s">
         <v>369</v>
       </c>
@@ -16613,7 +16786,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="10" t="s">
         <v>369</v>
       </c>
@@ -16636,7 +16809,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="10" t="s">
         <v>369</v>
       </c>
@@ -16659,7 +16832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="10" t="s">
         <v>369</v>
       </c>
@@ -16682,7 +16855,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="10" t="s">
         <v>369</v>
       </c>
@@ -16705,7 +16878,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="10" t="s">
         <v>369</v>
       </c>
@@ -16728,7 +16901,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="10" t="s">
         <v>369</v>
       </c>
@@ -16751,7 +16924,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="10" t="s">
         <v>369</v>
       </c>
@@ -16774,7 +16947,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="10" t="s">
         <v>369</v>
       </c>
@@ -16797,7 +16970,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="10" t="s">
         <v>369</v>
       </c>
@@ -16820,7 +16993,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="10" t="s">
         <v>369</v>
       </c>
@@ -16843,7 +17016,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="10" t="s">
         <v>369</v>
       </c>
@@ -16866,7 +17039,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="10" t="s">
         <v>369</v>
       </c>
@@ -16889,7 +17062,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="10" t="s">
         <v>369</v>
       </c>
@@ -16912,7 +17085,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="30">
       <c r="A162" s="10" t="s">
         <v>369</v>
       </c>
@@ -16935,7 +17108,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="10" t="s">
         <v>369</v>
       </c>
@@ -16958,7 +17131,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="10" t="s">
         <v>369</v>
       </c>
@@ -16981,7 +17154,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="30">
       <c r="A165" s="10" t="s">
         <v>369</v>
       </c>
@@ -17004,7 +17177,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="75">
       <c r="A166" s="10" t="s">
         <v>369</v>
       </c>
@@ -17027,7 +17200,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="30">
       <c r="A167" s="10" t="s">
         <v>369</v>
       </c>
@@ -17050,7 +17223,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="10" t="s">
         <v>369</v>
       </c>
@@ -17073,7 +17246,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="30">
       <c r="A169" s="10" t="s">
         <v>369</v>
       </c>
@@ -17096,7 +17269,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="10" t="s">
         <v>369</v>
       </c>
@@ -17119,7 +17292,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="45">
       <c r="A171" s="10" t="s">
         <v>369</v>
       </c>
@@ -17142,7 +17315,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="45">
       <c r="A172" s="10" t="s">
         <v>369</v>
       </c>
@@ -17165,7 +17338,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="10" t="s">
         <v>369</v>
       </c>
@@ -17188,7 +17361,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="10" t="s">
         <v>369</v>
       </c>
@@ -17211,7 +17384,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="10" t="s">
         <v>369</v>
       </c>
@@ -17232,7 +17405,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="45">
       <c r="A176" s="10" t="s">
         <v>369</v>
       </c>
@@ -17255,7 +17428,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="10" t="s">
         <v>369</v>
       </c>
@@ -17278,7 +17451,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="10" t="s">
         <v>369</v>
       </c>
@@ -17301,7 +17474,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="30">
       <c r="A179" s="10" t="s">
         <v>369</v>
       </c>
@@ -17324,7 +17497,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="30">
       <c r="A180" s="10" t="s">
         <v>369</v>
       </c>
@@ -17347,7 +17520,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30">
       <c r="A181" s="10" t="s">
         <v>369</v>
       </c>
@@ -17370,7 +17543,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="10" t="s">
         <v>369</v>
       </c>
@@ -17393,7 +17566,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="10" t="s">
         <v>369</v>
       </c>
@@ -17416,7 +17589,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="10" t="s">
         <v>369</v>
       </c>
@@ -17439,7 +17612,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="10" t="s">
         <v>369</v>
       </c>
@@ -17462,7 +17635,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="10" t="s">
         <v>369</v>
       </c>
@@ -17485,7 +17658,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="10" t="s">
         <v>369</v>
       </c>
@@ -17508,7 +17681,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="10" t="s">
         <v>369</v>
       </c>
@@ -17531,7 +17704,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" s="10" customFormat="1" ht="30">
       <c r="A189" s="10" t="s">
         <v>369</v>
       </c>
@@ -17554,7 +17727,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" s="10" customFormat="1" ht="45">
       <c r="A190" s="10" t="s">
         <v>369</v>
       </c>
@@ -17575,6 +17748,29 @@
       </c>
       <c r="G190" s="11" t="s">
         <v>931</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B191" s="21">
+        <v>400</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="E191" s="17">
+        <v>160395</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -17595,7 +17791,7 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -17607,7 +17803,7 @@
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17630,7 +17826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>415</v>
       </c>
@@ -17651,7 +17847,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="11" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>415</v>
       </c>
@@ -17674,7 +17870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="10" t="s">
         <v>415</v>
       </c>
@@ -17697,7 +17893,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>415</v>
       </c>
@@ -17720,7 +17916,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>415</v>
       </c>
@@ -17743,7 +17939,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>415</v>
       </c>
@@ -17766,7 +17962,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>415</v>
       </c>
@@ -17789,7 +17985,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>415</v>
       </c>
@@ -17812,7 +18008,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="10" t="s">
         <v>415</v>
       </c>
@@ -17833,7 +18029,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>415</v>
       </c>
@@ -17856,7 +18052,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>415</v>
       </c>
@@ -17877,7 +18073,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>415</v>
       </c>
@@ -17898,7 +18094,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>415</v>
       </c>
@@ -17919,7 +18115,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="10" t="s">
         <v>415</v>
       </c>
@@ -17940,7 +18136,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="10" t="s">
         <v>415</v>
       </c>
@@ -17961,7 +18157,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>415</v>
       </c>
@@ -17984,7 +18180,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>415</v>
       </c>
@@ -18007,7 +18203,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>415</v>
       </c>
@@ -18030,7 +18226,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>415</v>
       </c>
@@ -18053,7 +18249,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>415</v>
       </c>
@@ -18076,7 +18272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>415</v>
       </c>
@@ -18099,7 +18295,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>415</v>
       </c>
@@ -18120,7 +18316,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>415</v>
       </c>
@@ -18141,7 +18337,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>415</v>
       </c>
@@ -18162,7 +18358,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>415</v>
       </c>
@@ -18185,7 +18381,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="10" t="s">
         <v>415</v>
       </c>
@@ -18208,7 +18404,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>415</v>
       </c>
@@ -18231,7 +18427,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="10" t="s">
         <v>415</v>
       </c>
@@ -18254,7 +18450,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>415</v>
       </c>
@@ -18277,7 +18473,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>415</v>
       </c>
@@ -18300,7 +18496,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
         <v>415</v>
       </c>
@@ -18323,7 +18519,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="10" t="s">
         <v>415</v>
       </c>
@@ -18346,7 +18542,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>415</v>
       </c>
@@ -18369,7 +18565,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>415</v>
       </c>
@@ -18392,7 +18588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>415</v>
       </c>
@@ -18415,7 +18611,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="10" t="s">
         <v>415</v>
       </c>
@@ -18438,7 +18634,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="10" t="s">
         <v>415</v>
       </c>
@@ -18461,7 +18657,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="10" t="s">
         <v>415</v>
       </c>
@@ -18496,15 +18692,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -18515,7 +18711,7 @@
     <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18538,7 +18734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>475</v>
       </c>
@@ -18561,7 +18757,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -18584,7 +18780,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -18605,7 +18801,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" t="s">
         <v>475</v>
       </c>
@@ -18628,7 +18824,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -18649,7 +18845,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" t="s">
         <v>475</v>
       </c>
@@ -18672,7 +18868,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" t="s">
         <v>475</v>
       </c>
@@ -18695,7 +18891,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>475</v>
       </c>
@@ -18716,7 +18912,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -18739,7 +18935,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -18762,7 +18958,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45">
       <c r="A12" t="s">
         <v>475</v>
       </c>
@@ -18785,7 +18981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -18808,7 +19004,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
         <v>475</v>
       </c>
@@ -18831,7 +19027,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -18854,7 +19050,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
         <v>475</v>
       </c>
@@ -18877,7 +19073,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
         <v>475</v>
       </c>
@@ -18900,7 +19096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
         <v>475</v>
       </c>
@@ -18923,7 +19119,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
         <v>475</v>
       </c>
@@ -18946,7 +19142,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45">
       <c r="A20" t="s">
         <v>475</v>
       </c>
@@ -18969,7 +19165,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
         <v>475</v>
       </c>
@@ -18992,7 +19188,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" t="s">
         <v>475</v>
       </c>
@@ -19015,7 +19211,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" t="s">
         <v>475</v>
       </c>
@@ -19038,7 +19234,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" t="s">
         <v>475</v>
       </c>
@@ -19061,7 +19257,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -19084,7 +19280,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" t="s">
         <v>475</v>
       </c>
@@ -19107,7 +19303,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" t="s">
         <v>475</v>
       </c>
@@ -19130,7 +19326,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" t="s">
         <v>475</v>
       </c>
@@ -19153,7 +19349,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" t="s">
         <v>475</v>
       </c>
@@ -19176,7 +19372,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" t="s">
         <v>475</v>
       </c>
@@ -19199,7 +19395,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="60">
       <c r="A31" t="s">
         <v>475</v>
       </c>
@@ -19222,7 +19418,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="60">
       <c r="A32" t="s">
         <v>475</v>
       </c>
@@ -19245,7 +19441,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" t="s">
         <v>475</v>
       </c>
@@ -19268,7 +19464,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>475</v>
       </c>
@@ -19291,7 +19487,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>475</v>
       </c>
@@ -19312,7 +19508,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" t="s">
         <v>475</v>
       </c>
@@ -19333,6 +19529,29 @@
       </c>
       <c r="G36" s="2" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37">
+        <v>400</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>970</v>
+      </c>
+      <c r="E37" s="17">
+        <v>160395</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -19345,13 +19564,14 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -19363,7 +19583,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19386,7 +19606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="11" t="s">
         <v>521</v>
       </c>
@@ -19409,7 +19629,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="11" t="s">
         <v>521</v>
       </c>
@@ -19432,7 +19652,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
         <v>521</v>
       </c>
@@ -19455,7 +19675,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>521</v>
       </c>
@@ -19478,7 +19698,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>521</v>
       </c>
@@ -19501,7 +19721,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>521</v>
       </c>
@@ -19524,7 +19744,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
         <v>521</v>
       </c>
@@ -19547,7 +19767,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="11" t="s">
         <v>521</v>
       </c>
@@ -19568,7 +19788,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>521</v>
       </c>
@@ -19591,7 +19811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="11" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>521</v>
       </c>
@@ -19612,7 +19832,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="11" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>521</v>
       </c>
@@ -19633,7 +19853,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
         <v>521</v>
       </c>
@@ -19654,7 +19874,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A14" s="11" t="s">
         <v>521</v>
       </c>
@@ -19675,7 +19895,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>521</v>
       </c>
@@ -19696,7 +19916,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>521</v>
       </c>
@@ -19717,7 +19937,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="11" customFormat="1">
       <c r="A17" s="11" t="s">
         <v>521</v>
       </c>
@@ -19738,7 +19958,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="11" customFormat="1">
       <c r="A18" s="11" t="s">
         <v>521</v>
       </c>
@@ -19759,7 +19979,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="11" customFormat="1">
       <c r="A19" s="11" t="s">
         <v>521</v>
       </c>
@@ -19782,7 +20002,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="11" t="s">
         <v>521</v>
       </c>
@@ -19805,7 +20025,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>521</v>
       </c>
@@ -19828,7 +20048,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>521</v>
       </c>
@@ -19851,7 +20071,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>521</v>
       </c>
@@ -19874,7 +20094,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>521</v>
       </c>
@@ -19897,7 +20117,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" s="11" t="s">
         <v>521</v>
       </c>
@@ -19920,7 +20140,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="11" t="s">
         <v>521</v>
       </c>
@@ -19943,7 +20163,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="11" t="s">
         <v>521</v>
       </c>
@@ -19966,7 +20186,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="11" t="s">
         <v>521</v>
       </c>
@@ -19982,14 +20202,14 @@
       <c r="E28" s="24">
         <v>160289</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="37" t="s">
         <v>808</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="11" t="s">
         <v>521</v>
       </c>
@@ -20005,11 +20225,34 @@
       <c r="E29" s="24">
         <v>160290</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="37" t="s">
         <v>809</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="11">
+        <v>400</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="E30" s="17">
+        <v>160396</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -20019,12 +20262,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20274,22 +20521,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20315,19 +20568,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Error Inventory/API Error Consolidated List.xlsx
+++ b/Error Inventory/API Error Consolidated List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eagnmnwbp130a.usa.dce.usps.gov\VDIProfiles$\fsbtg0\Documents\API Consolidated file to upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F448109-556B-48A9-BBCE-95366CD8D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221AFA77-C70C-4A96-B5FD-8FDE26F499FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="13785" firstSheet="3" activeTab="4" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13920" firstSheet="11" activeTab="12" xr2:uid="{BD4CA92B-BD2B-408A-B66B-5389FE5197CE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Errors" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="1009">
   <si>
     <t>API</t>
   </si>
@@ -3112,6 +3112,12 @@
   </si>
   <si>
     <t>at least 1 item is required when requesting duties, taxes, and fees</t>
+  </si>
+  <si>
+    <t>barcode &lt;barcode&gt; has been canceled and is not eligible to be added to a SCAN Form</t>
+  </si>
+  <si>
+    <t>barcode&lt;barcode &gt;has manifested and is not eligible to be added to a SCAN Form</t>
   </si>
 </sst>
 </file>
@@ -3255,7 +3261,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3392,7 +3398,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -4012,7 +4017,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="10" t="s">
         <v>524</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="10" t="s">
         <v>524</v>
       </c>
@@ -5179,10 +5184,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5539,7 +5544,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
         <v>572</v>
       </c>
@@ -5560,6 +5565,52 @@
       </c>
       <c r="G16" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B17" s="10">
+        <v>400</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="E17" s="24">
+        <v>160397</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="10">
+        <v>400</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="E18" s="24">
+        <v>160398</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -8048,8 +8099,8 @@
   </sheetPr>
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
@@ -13354,7 +13405,7 @@
       <c r="C231" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D231" s="48" t="s">
+      <c r="D231" t="s">
         <v>1004</v>
       </c>
       <c r="E231" s="17">
@@ -17787,7 +17838,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -17826,7 +17877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1">
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A2" s="10" t="s">
         <v>415</v>
       </c>
@@ -17847,7 +17898,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1">
+    <row r="3" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
         <v>415</v>
       </c>
@@ -17893,7 +17944,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="10" t="s">
         <v>415</v>
       </c>
@@ -17916,7 +17967,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="10" t="s">
         <v>415</v>
       </c>
@@ -17939,7 +17990,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="10" t="s">
         <v>415</v>
       </c>
@@ -17962,7 +18013,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="10" t="s">
         <v>415</v>
       </c>
@@ -17985,7 +18036,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="10" t="s">
         <v>415</v>
       </c>
@@ -18029,7 +18080,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="10" t="s">
         <v>415</v>
       </c>
@@ -18052,7 +18103,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="10" t="s">
         <v>415</v>
       </c>
@@ -18073,7 +18124,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="10" t="s">
         <v>415</v>
       </c>
@@ -18094,7 +18145,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="10" t="s">
         <v>415</v>
       </c>
@@ -18157,7 +18208,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="10" t="s">
         <v>415</v>
       </c>
@@ -18180,7 +18231,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="10" t="s">
         <v>415</v>
       </c>
@@ -18203,7 +18254,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="10" t="s">
         <v>415</v>
       </c>
@@ -18226,7 +18277,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="10" t="s">
         <v>415</v>
       </c>
@@ -18249,7 +18300,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" s="10" t="s">
         <v>415</v>
       </c>
@@ -18272,7 +18323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" s="10" t="s">
         <v>415</v>
       </c>
@@ -18295,7 +18346,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="10" t="s">
         <v>415</v>
       </c>
@@ -18316,7 +18367,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="10" t="s">
         <v>415</v>
       </c>
@@ -18337,7 +18388,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" s="10" t="s">
         <v>415</v>
       </c>
@@ -18358,7 +18409,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="10" t="s">
         <v>415</v>
       </c>
@@ -18381,7 +18432,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27" s="10" t="s">
         <v>415</v>
       </c>
@@ -18801,7 +18852,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>475</v>
       </c>
@@ -18958,7 +19009,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" t="s">
         <v>475</v>
       </c>
@@ -19567,8 +19618,8 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19652,7 +19703,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="11" t="s">
         <v>521</v>
       </c>
@@ -19675,7 +19726,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="11" t="s">
         <v>521</v>
       </c>
@@ -19698,7 +19749,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="11" t="s">
         <v>521</v>
       </c>
@@ -19721,7 +19772,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11" t="s">
         <v>521</v>
       </c>
@@ -19744,7 +19795,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="11" t="s">
         <v>521</v>
       </c>
@@ -19788,7 +19839,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="11" t="s">
         <v>521</v>
       </c>
@@ -19811,7 +19862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1">
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A11" s="11" t="s">
         <v>521</v>
       </c>
@@ -19832,7 +19883,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A12" s="11" t="s">
         <v>521</v>
       </c>
@@ -19853,7 +19904,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="11" customFormat="1">
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A13" s="11" t="s">
         <v>521</v>
       </c>
@@ -19895,7 +19946,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="11" customFormat="1">
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A15" s="11" t="s">
         <v>521</v>
       </c>
@@ -19916,7 +19967,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="11" customFormat="1">
+    <row r="16" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A16" s="11" t="s">
         <v>521</v>
       </c>
@@ -19937,7 +19988,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1">
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A17" s="11" t="s">
         <v>521</v>
       </c>
@@ -19958,7 +20009,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1">
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A18" s="11" t="s">
         <v>521</v>
       </c>
@@ -19979,7 +20030,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1">
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="A19" s="11" t="s">
         <v>521</v>
       </c>
@@ -20002,7 +20053,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="60">
       <c r="A20" s="11" t="s">
         <v>521</v>
       </c>
@@ -20048,7 +20099,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" s="11" t="s">
         <v>521</v>
       </c>
@@ -20071,7 +20122,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="11" t="s">
         <v>521</v>
       </c>
@@ -20094,7 +20145,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="11" t="s">
         <v>521</v>
       </c>
@@ -20245,7 +20296,7 @@
       <c r="D30" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="24">
         <v>160396</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -20262,16 +20313,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20521,28 +20568,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20568,9 +20609,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D590CCA9-7961-4660-BBC6-10104A0DDFD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DC8D4E-C199-4BF9-AF5D-F16C7D7041E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2595f96f-d2aa-4fa4-b5ed-10baae53ecb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cf85ca5-4acf-45da-adaa-d6bfc34b6c9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
